--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="233">
   <si>
     <t>TABELA cancoes</t>
   </si>
@@ -44,10 +44,61 @@
     <t>"Dance With Her Own"</t>
   </si>
   <si>
+    <t>"Troubles Of My Inner Fire"</t>
+  </si>
+  <si>
+    <t>"Time Fireworks"</t>
+  </si>
+  <si>
+    <t>"Magic Circus"</t>
+  </si>
+  <si>
+    <t>"Honey, So Do I"</t>
+  </si>
+  <si>
+    <t>"Sweetie, Let's Go Wild"</t>
+  </si>
+  <si>
+    <t>"She Knows"</t>
+  </si>
+  <si>
+    <t>"Fantasy For Me"</t>
+  </si>
+  <si>
+    <t>"Celebration Of More"</t>
+  </si>
+  <si>
+    <t>"Rock His Everything"</t>
+  </si>
+  <si>
+    <t>"Home Forever"</t>
+  </si>
+  <si>
+    <t>"Diamond Power"</t>
+  </si>
+  <si>
+    <t>"Let's Be Silly"</t>
+  </si>
+  <si>
+    <t>"Thang Of Thunder"</t>
+  </si>
+  <si>
+    <t>"Words Of Her Life"</t>
+  </si>
+  <si>
+    <t>"Without My Streets"</t>
+  </si>
+  <si>
+    <t>"Need Of The Evening"</t>
+  </si>
+  <si>
+    <t>"History Of My Roses"</t>
+  </si>
+  <si>
     <t>TABELA album</t>
   </si>
   <si>
-    <t>"Troubles Of My Inner Fire"</t>
+    <t>"Without My Love"</t>
   </si>
   <si>
     <t>album_id</t>
@@ -56,13 +107,13 @@
     <t>album</t>
   </si>
   <si>
+    <t>ano_lancamento</t>
+  </si>
+  <si>
     <t>FK - artista_id</t>
   </si>
   <si>
-    <t>ano_lancamento</t>
-  </si>
-  <si>
-    <t>"Time Fireworks"</t>
+    <t>"Walking And Game"</t>
   </si>
   <si>
     <t>Envious</t>
@@ -71,7 +122,10 @@
     <t>1990</t>
   </si>
   <si>
-    <t>"Magic Circus"</t>
+    <t>TABELA album_artista</t>
+  </si>
+  <si>
+    <t>"Young And Father"</t>
   </si>
   <si>
     <t>Exuberant</t>
@@ -80,7 +134,7 @@
     <t>1993</t>
   </si>
   <si>
-    <t>"Honey, So Do I"</t>
+    <t>"Finding My Traditions"</t>
   </si>
   <si>
     <t>Hallowed Steam</t>
@@ -89,7 +143,7 @@
     <t>1995</t>
   </si>
   <si>
-    <t>"Sweetie, Let's Go Wild"</t>
+    <t>"Walking And Man"</t>
   </si>
   <si>
     <t>Incandescent</t>
@@ -98,7 +152,7 @@
     <t>1998</t>
   </si>
   <si>
-    <t>"She Knows"</t>
+    <t>"Hard And Time"</t>
   </si>
   <si>
     <t>Temporary Culture</t>
@@ -107,7 +161,7 @@
     <t>2001</t>
   </si>
   <si>
-    <t>"Fantasy For Me"</t>
+    <t>"Honey, I'm A Lone Wolf"</t>
   </si>
   <si>
     <t>Library of liberty</t>
@@ -116,7 +170,7 @@
     <t>2003</t>
   </si>
   <si>
-    <t>"Celebration Of More"</t>
+    <t>"She Thinks I Won't Stay Tonight"</t>
   </si>
   <si>
     <t>Chained Down</t>
@@ -125,7 +179,7 @@
     <t>2007</t>
   </si>
   <si>
-    <t>"Rock His Everything"</t>
+    <t>"He Heard You're Bad For Me"</t>
   </si>
   <si>
     <t>Cabinet of fools</t>
@@ -134,7 +188,7 @@
     <t>2012</t>
   </si>
   <si>
-    <t>"Home Forever"</t>
+    <t>"He Hopes We Can't Stay"</t>
   </si>
   <si>
     <t>No guarantees</t>
@@ -143,150 +197,96 @@
     <t>2015</t>
   </si>
   <si>
-    <t>"Diamond Power"</t>
+    <t>"I Know I Know"</t>
   </si>
   <si>
     <t>Apparatus</t>
   </si>
   <si>
-    <t>"Let's Be Silly"</t>
-  </si>
-  <si>
-    <t>"Thang Of Thunder"</t>
-  </si>
-  <si>
-    <t>"Words Of Her Life"</t>
-  </si>
-  <si>
-    <t>"Without My Streets"</t>
-  </si>
-  <si>
-    <t>"Need Of The Evening"</t>
-  </si>
-  <si>
-    <t>"History Of My Roses"</t>
-  </si>
-  <si>
-    <t>"Without My Love"</t>
-  </si>
-  <si>
-    <t>"Walking And Game"</t>
-  </si>
-  <si>
-    <t>"Young And Father"</t>
-  </si>
-  <si>
-    <t>"Finding My Traditions"</t>
-  </si>
-  <si>
-    <t>"Walking And Man"</t>
-  </si>
-  <si>
-    <t>"Hard And Time"</t>
-  </si>
-  <si>
-    <t>"Honey, I'm A Lone Wolf"</t>
+    <t>"He's Walking Away"</t>
+  </si>
+  <si>
+    <t>"He's Trouble"</t>
+  </si>
+  <si>
+    <t>"I Heard I Want To Bo Alone"</t>
+  </si>
+  <si>
+    <t>"I Ride Alone"</t>
+  </si>
+  <si>
+    <t>"Honey"</t>
+  </si>
+  <si>
+    <t>"You Cheated On Me"</t>
+  </si>
+  <si>
+    <t>"Wouldn't It Be Nice"</t>
+  </si>
+  <si>
+    <t>"Baby"</t>
+  </si>
+  <si>
+    <t>"You Make Me Feel So.."</t>
+  </si>
+  <si>
+    <t>TABELA usuario_segue_artista</t>
   </si>
   <si>
     <t>TABELA artista</t>
   </si>
   <si>
-    <t>"She Thinks I Won't Stay Tonight"</t>
+    <t>FK - usuario_id</t>
   </si>
   <si>
     <t>artista_id</t>
   </si>
   <si>
-    <t>"He Heard You're Bad For Me"</t>
+    <t>1</t>
   </si>
   <si>
     <t>Walter Phoenix</t>
   </si>
   <si>
-    <t>"He Hopes We Can't Stay"</t>
-  </si>
-  <si>
     <t>Freedie Shannon</t>
   </si>
   <si>
-    <t>"I Know I Know"</t>
+    <t>TABELA historico_usuario</t>
   </si>
   <si>
     <t>Lance Day</t>
   </si>
   <si>
-    <t>"He's Walking Away"</t>
+    <t>historico_de_reproducoes</t>
+  </si>
+  <si>
+    <t>data_reproducao</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Peter Strong</t>
   </si>
   <si>
-    <t>"He's Trouble"</t>
+    <t>"2020-02-28 10:45:55"</t>
   </si>
   <si>
     <t>Tyler Isle</t>
   </si>
   <si>
-    <t>"I Heard I Want To Bo Alone"</t>
+    <t xml:space="preserve"> "Walking And Man"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-05-02 05:30:35"</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Fog</t>
   </si>
   <si>
-    <t>"I Ride Alone"</t>
-  </si>
-  <si>
-    <t>"Honey"</t>
-  </si>
-  <si>
-    <t>"You Cheated On Me"</t>
-  </si>
-  <si>
-    <t>"Wouldn't It Be Nice"</t>
-  </si>
-  <si>
-    <t>"Baby"</t>
-  </si>
-  <si>
-    <t>"You Make Me Feel So.."</t>
-  </si>
-  <si>
-    <t>TABELA usuario_segue_artista</t>
-  </si>
-  <si>
-    <t>FK - usuario_id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>TABELA historico_usuario</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>historico_de_reproducoes</t>
-  </si>
-  <si>
-    <t>data_reproducao</t>
-  </si>
-  <si>
-    <t>"2020-02-28 10:45:55"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Walking And Man"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-05-02 05:30:35"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Young And Father"</t>
   </si>
   <si>
@@ -320,6 +320,9 @@
     <t>plano_id</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>"2020-01-02 07:40:33"</t>
   </si>
   <si>
@@ -431,16 +434,94 @@
     <t>data_assinatura</t>
   </si>
   <si>
+    <t xml:space="preserve"> "He Heard You're Bad For Me"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-01-24 00:31:17"</t>
+  </si>
+  <si>
+    <t>2019-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He Hopes We Can't Stay"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-10-12 12:35:20"</t>
+  </si>
+  <si>
+    <t>2017-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Walking And Game"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2018-05-29 14:56:41"</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>"2018-05-09 22:30:49"</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Troubles Of My Inner Fire"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-07-27 12:52:58"</t>
+  </si>
+  <si>
+    <t>2017-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Celebration Of More"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2018-01-16 18:40:43"</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>"2018-03-21 16:56:40"</t>
+  </si>
+  <si>
+    <t>2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "You Make Me Feel So.."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-10-18 13:38:05"</t>
+  </si>
+  <si>
+    <t>2018-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He"s Walking Away"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2019-05-25 08:14:03"</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He"s Trouble"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2021-08-15 21:37:09"</t>
+  </si>
+  <si>
+    <t>2017-01-17</t>
+  </si>
+  <si>
     <t>TABELA PLANOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> "He Heard You're Bad For Me"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-01-24 00:31:17"</t>
-  </si>
-  <si>
-    <t>2019-10-20</t>
+    <t>"2021-05-24 17:23:45"</t>
   </si>
   <si>
     <t>plano</t>
@@ -449,25 +530,19 @@
     <t>preco</t>
   </si>
   <si>
-    <t xml:space="preserve"> "He Hopes We Can't Stay"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-10-12 12:35:20"</t>
-  </si>
-  <si>
-    <t>2017-12-30</t>
+    <t xml:space="preserve"> "Words Of Her Life"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2018-12-07 22:48:52"</t>
   </si>
   <si>
     <t>gratuito</t>
   </si>
   <si>
-    <t xml:space="preserve">  "Walking And Game"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2018-05-29 14:56:41"</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
+    <t xml:space="preserve"> "Sweetie, Let's Go Wild"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2021-03-14 06:14:26"</t>
   </si>
   <si>
     <t>familiar</t>
@@ -476,10 +551,10 @@
     <t>7,99</t>
   </si>
   <si>
-    <t>"2018-05-09 22:30:49"</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
+    <t xml:space="preserve"> "She Knows"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-04-01 03:36:00"</t>
   </si>
   <si>
     <t>universitário</t>
@@ -488,13 +563,7 @@
     <t>5,99</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Troubles Of My Inner Fire"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-07-27 12:52:58"</t>
-  </si>
-  <si>
-    <t>2017-02-17</t>
+    <t>"2017-02-06 08:21:34"</t>
   </si>
   <si>
     <t>pessoal</t>
@@ -503,72 +572,6 @@
     <t>6,99</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Celebration Of More"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2018-01-16 18:40:43"</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>"2018-03-21 16:56:40"</t>
-  </si>
-  <si>
-    <t>2018-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "You Make Me Feel So.."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-10-18 13:38:05"</t>
-  </si>
-  <si>
-    <t>2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "He"s Walking Away"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2019-05-25 08:14:03"</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "He"s Trouble"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2021-08-15 21:37:09"</t>
-  </si>
-  <si>
-    <t>2017-01-17</t>
-  </si>
-  <si>
-    <t>"2021-05-24 17:23:45"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Words Of Her Life"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2018-12-07 22:48:52"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Sweetie, Let's Go Wild"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2021-03-14 06:14:26"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "She Knows"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-04-01 03:36:00"</t>
-  </si>
-  <si>
-    <t>"2017-02-06 08:21:34"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2017-12-04 05:33:43"</t>
   </si>
   <si>
@@ -584,36 +587,24 @@
     <t>valor_plano</t>
   </si>
   <si>
-    <t>seguindo_artistas</t>
-  </si>
-  <si>
     <t>Honey"; "Walking And Man"; "Young And Father"; "Diamond Power"; "Let's Be Silly"</t>
   </si>
   <si>
     <t>2020-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"; "2020-08-05 08:05:17"; "2020-09-14 16:32:22"</t>
   </si>
   <si>
-    <t>Walter Phoenix; Freedie Shannon; Lance Day</t>
-  </si>
-  <si>
     <t>I Heard I Want To Bo Alone"; "Finding My Traditions"; "Without My Love"; "Baby"</t>
   </si>
   <si>
     <t>2020-01-02 07:40:33"; "2020-05-16 06:16:22"; "2020-10-09 12:27:48"; "2020-09-21 13:14:46"</t>
   </si>
   <si>
-    <t>Walter Phoenix; Lance Day</t>
-  </si>
-  <si>
     <t>Magic Circus"; "Dance With Her Own"; "Hard And Time"</t>
   </si>
   <si>
     <t>2020-11-13 16:55:13"; "2020-12-05 18:38:30"; "2020-07-30 10:00:00"</t>
   </si>
   <si>
-    <t>Peter Strong; Walter Phoenix;</t>
-  </si>
-  <si>
     <t>Reflections Of Magic"; "I Ride Alone"; "Honey, I'm A Lone Wolf"</t>
   </si>
   <si>
@@ -626,55 +617,34 @@
     <t>2020-07-03 19:33:28"; "2017-02-24 21:14:22"; "2020-08-06 15:23:43"; "2020-11-10 13:52:27"</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Tyler Isle; Fog</t>
-  </si>
-  <si>
     <t>Wouldn't It Be Nice"; "He Heard You're Bad For Me"; "He Hopes We Can't Stay";  "Walking And Game"</t>
   </si>
   <si>
     <t>2019-02-07 20:33:48"; "2017-01-24 00:31:17"; "2017-10-12 12:35:20"; "2018-05-29 14:56:41"</t>
   </si>
   <si>
-    <t>Fog; Lance Day; Walter Phoenix</t>
-  </si>
-  <si>
     <t>Time Fireworks"; "Troubles Of My Inner Fire"; "Celebration Of More"</t>
   </si>
   <si>
     <t>2018-05-09 22:30:49"; "2020-07-27 12:52:58"; "2018-01-16 18:40:43"</t>
   </si>
   <si>
-    <t>Peter Strong; Tyler Isle</t>
-  </si>
-  <si>
     <t>Baby"; "You Make Me Feel So.."; "He"s Walking Away"; "He"s Trouble"</t>
   </si>
   <si>
     <t>2018-03-21 16:56:40"; "2020-10-18 13:38:05"; "2019-05-25 08:14:03"; "2021-08-15 21:37:09"</t>
   </si>
   <si>
-    <t>Walter Phoenix; Tyler Isle</t>
-  </si>
-  <si>
     <t>Thang Of Thunder"; "Words Of Her Life"; "Sweetie, Let's Go Wild"; "She Knows"</t>
   </si>
   <si>
     <t>2021-05-24 17:23:45"; "2018-12-07 22:48:52"; "2021-03-14 06:14:26"; "2020-04-01 03:36:00"</t>
   </si>
   <si>
-    <t>Fog; Freedie Shannon; Lance Day</t>
-  </si>
-  <si>
     <t>History Of My Roses"; "Without My Love"; "Rock His Everything"; "Home Forever"</t>
   </si>
   <si>
     <t>2017-02-06 08:21:34"; "2017-12-04 05:33:43"; "2017-07-27 05:24:49"; "2017-12-25 01:03:57"</t>
-  </si>
-  <si>
-    <t>Peter Strong; Fog</t>
   </si>
   <si>
     <t>artista</t>
@@ -747,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -771,13 +741,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,12 +765,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -883,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -929,10 +888,6 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -948,6 +903,20 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -964,26 +933,30 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -991,55 +964,33 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1047,15 +998,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font/>
       <fill>
@@ -1067,8 +1015,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF46524"/>
-          <bgColor rgb="FFF46524"/>
+          <fgColor rgb="FF5B95F9"/>
+          <bgColor rgb="FF5B95F9"/>
         </patternFill>
       </fill>
       <border/>
@@ -1087,26 +1035,6 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE6DD"/>
-          <bgColor rgb="FFFFE6DD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B95F9"/>
-          <bgColor rgb="FF5B95F9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFE8F0FE"/>
           <bgColor rgb="FFE8F0FE"/>
         </patternFill>
@@ -1114,26 +1042,16 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="4">
-    <tableStyle count="3" pivot="0" name="Sheet1-style">
+  <tableStyles count="2">
+    <tableStyle count="3" pivot="0" name="Página1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style">
-      <tableStyleElement dxfId="4" type="headerRow"/>
+    <tableStyle count="3" pivot="0" name="Página1-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 2">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 3">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1148,27 +1066,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J43:K49" displayName="Table_1" id="1">
-  <tableColumns count="2">
-    <tableColumn name="FK - usuario_id" id="1"/>
-    <tableColumn name="FK - artista_id" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="J1:K11" displayName="Table_2" id="2">
-  <tableColumns count="2">
-    <tableColumn name="usuario_id" id="1"/>
-    <tableColumn name="seguindo_artistas" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H11" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H11" displayName="Table_1" id="1">
   <tableColumns count="8">
     <tableColumn name="usuario_id" id="1"/>
     <tableColumn name="usuario" id="2"/>
@@ -1179,12 +1077,12 @@
     <tableColumn name="data_assinatura" id="7"/>
     <tableColumn name="valor_plano" id="8"/>
   </tableColumns>
-  <tableStyleInfo name="Página1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:F23" displayName="Table_4" id="4">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A13:F23" displayName="Table_2" id="2">
   <tableColumns count="6">
     <tableColumn name="album_id" id="1"/>
     <tableColumn name="album" id="2"/>
@@ -1193,7 +1091,7 @@
     <tableColumn name="duracao_segundos" id="5"/>
     <tableColumn name="ano_lancamento" id="6"/>
   </tableColumns>
-  <tableStyleInfo name="Página1-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Página1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1410,19 +1308,19 @@
     <col customWidth="1" min="7" max="7" width="14.71"/>
     <col customWidth="1" min="8" max="8" width="17.0"/>
     <col customWidth="1" min="9" max="9" width="20.86"/>
-    <col customWidth="1" min="10" max="10" width="11.86"/>
+    <col customWidth="1" min="10" max="10" width="26.71"/>
     <col customWidth="1" min="11" max="11" width="17.71"/>
     <col customWidth="1" min="12" max="12" width="17.14"/>
     <col customWidth="1" min="13" max="13" width="15.86"/>
     <col customWidth="1" min="14" max="14" width="17.14"/>
-    <col customWidth="1" min="15" max="15" width="23.0"/>
+    <col customWidth="1" min="15" max="15" width="22.14"/>
     <col customWidth="1" min="16" max="16" width="22.43"/>
     <col customWidth="1" min="17" max="17" width="20.43"/>
     <col customWidth="1" min="18" max="18" width="28.43"/>
     <col customWidth="1" min="19" max="19" width="26.0"/>
     <col customWidth="1" min="20" max="20" width="22.43"/>
     <col customWidth="1" min="21" max="22" width="8.86"/>
-    <col customWidth="1" min="23" max="24" width="14.43"/>
+    <col customWidth="1" min="23" max="35" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1446,6 +1344,17 @@
       <c r="V1" s="4"/>
       <c r="W1" s="6"/>
       <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
@@ -1551,63 +1460,42 @@
       <c r="F5" s="16">
         <v>3.0</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
       <c r="V5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="12">
         <v>4.0</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>11</v>
+      <c r="B6" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="18">
         <v>203.0</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>2.0</v>
       </c>
       <c r="F6" s="12">
         <v>4.0</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
       <c r="V6" s="10"/>
     </row>
     <row r="7">
@@ -1615,39 +1503,26 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C7" s="13">
         <v>152.0</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>2.0</v>
       </c>
       <c r="F7" s="16">
         <v>5.0</v>
       </c>
-      <c r="I7" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="21"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
       <c r="V7" s="10"/>
     </row>
     <row r="8">
@@ -1655,39 +1530,26 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13">
         <v>105.0</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>3.0</v>
       </c>
       <c r="F8" s="16">
         <v>6.0</v>
       </c>
-      <c r="I8" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="31">
-        <v>1.0</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="10"/>
     </row>
     <row r="9">
@@ -1695,35 +1557,22 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C9" s="13">
         <v>207.0</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>3.0</v>
       </c>
       <c r="F9" s="12">
         <v>7.0</v>
       </c>
-      <c r="I9" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="33">
-        <v>4.0</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -1734,33 +1583,20 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C10" s="13">
         <v>139.0</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>3.0</v>
       </c>
       <c r="F10" s="16">
         <v>8.0</v>
       </c>
-      <c r="I10" s="34">
-        <v>4.0</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
       <c r="U10" s="4"/>
       <c r="V10" s="10"/>
     </row>
@@ -1769,32 +1605,19 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C11" s="13">
         <v>244.0</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>3.0</v>
       </c>
       <c r="F11" s="16">
         <v>9.0</v>
       </c>
-      <c r="I11" s="34">
-        <v>5.0</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="10"/>
@@ -1804,32 +1627,19 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13">
         <v>100.0</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="24">
         <v>4.0</v>
       </c>
       <c r="F12" s="12">
         <v>10.0</v>
       </c>
-      <c r="I12" s="34">
-        <v>6.0</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="10"/>
@@ -1838,34 +1648,21 @@
       <c r="A13" s="16">
         <v>11.0</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="36">
+      <c r="B13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="25">
         <v>146.0</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="34">
+      <c r="E13" s="24">
         <v>4.0</v>
       </c>
       <c r="F13" s="16">
         <v>11.0</v>
       </c>
-      <c r="I13" s="34">
-        <v>7.0</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="35">
-        <v>5.0</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="10"/>
@@ -1874,35 +1671,22 @@
       <c r="A14" s="16">
         <v>12.0</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="B14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="25">
         <v>223.0</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="34">
+      <c r="E14" s="24">
         <v>4.0</v>
       </c>
       <c r="F14" s="16">
         <v>12.0</v>
       </c>
-      <c r="I14" s="34">
-        <v>8.0</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="35">
-        <v>5.0</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
       <c r="U14" s="4"/>
       <c r="V14" s="10"/>
     </row>
@@ -1910,32 +1694,19 @@
       <c r="A15" s="12">
         <v>13.0</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="36">
+      <c r="B15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="25">
         <v>231.0</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="34">
+      <c r="E15" s="24">
         <v>4.0</v>
       </c>
       <c r="F15" s="12">
         <v>13.0</v>
       </c>
-      <c r="I15" s="34">
-        <v>9.0</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="35">
-        <v>5.0</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -1946,32 +1717,19 @@
       <c r="A16" s="16">
         <v>14.0</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="36">
+      <c r="B16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="25">
         <v>241.0</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="34">
+      <c r="E16" s="24">
         <v>4.0</v>
       </c>
       <c r="F16" s="16">
         <v>14.0</v>
       </c>
-      <c r="I16" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -1982,14 +1740,14 @@
       <c r="A17" s="16">
         <v>15.0</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="25">
         <v>132.0</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="34">
+      <c r="E17" s="24">
         <v>4.0</v>
       </c>
       <c r="F17" s="16">
@@ -2009,13 +1767,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="36">
+        <v>22</v>
+      </c>
+      <c r="C18" s="25">
         <v>240.0</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="34">
+      <c r="E18" s="24">
         <v>5.0</v>
       </c>
       <c r="F18" s="12">
@@ -2027,59 +1785,55 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="37"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="16">
         <v>17.0</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="36">
+      <c r="B19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="25">
         <v>185.0</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="34">
+      <c r="E19" s="24">
         <v>5.0</v>
       </c>
       <c r="F19" s="16">
         <v>17.0</v>
       </c>
       <c r="I19" s="4"/>
-      <c r="K19" s="26"/>
-      <c r="M19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="37"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="16">
         <v>18.0</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="36">
+      <c r="B20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="25">
         <v>176.0</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="34">
+      <c r="E20" s="24">
         <v>5.0</v>
       </c>
       <c r="F20" s="16">
         <v>18.0</v>
       </c>
       <c r="I20" s="4"/>
-      <c r="K20" s="26"/>
-      <c r="M20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="37"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="6"/>
     </row>
     <row r="21">
@@ -2087,47 +1841,48 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="36">
+        <v>25</v>
+      </c>
+      <c r="C21" s="25">
         <v>190.0</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="34">
+      <c r="E21" s="24">
         <v>6.0</v>
       </c>
       <c r="F21" s="12">
         <v>19.0</v>
       </c>
       <c r="I21" s="4"/>
-      <c r="K21" s="26"/>
-      <c r="M21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="37"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="16">
         <v>20.0</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="36">
+      <c r="B22" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="25">
         <v>222.0</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="34">
+      <c r="E22" s="24">
         <v>6.0</v>
       </c>
       <c r="F22" s="16">
         <v>20.0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="K22" s="26"/>
-      <c r="M22" s="4"/>
+      <c r="H22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2135,29 +1890,39 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
-      <c r="U22" s="37"/>
+      <c r="U22" s="27"/>
       <c r="V22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16">
         <v>21.0</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="36">
+      <c r="B23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="25">
         <v>111.0</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="34">
+      <c r="E23" s="24">
         <v>6.0</v>
       </c>
       <c r="F23" s="16">
         <v>21.0</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="K23" s="26"/>
-      <c r="M23" s="4"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -2165,67 +1930,93 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
-      <c r="U23" s="37"/>
+      <c r="U23" s="27"/>
       <c r="V23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="12">
         <v>22.0</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="36">
+      <c r="B24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="25">
         <v>123.0</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="34">
+      <c r="E24" s="24">
         <v>6.0</v>
       </c>
       <c r="F24" s="12">
         <v>22.0</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="K24" s="26"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="H24" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="37"/>
+      <c r="U24" s="27"/>
       <c r="V24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16">
         <v>23.0</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="36">
+      <c r="B25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="25">
         <v>197.0</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="34">
+      <c r="E25" s="24">
         <v>6.0</v>
       </c>
       <c r="F25" s="16">
         <v>23.0</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="K25" s="26"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="H25" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>32</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
-      <c r="U25" s="37"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2233,29 +2024,43 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="36">
+        <v>40</v>
+      </c>
+      <c r="C26" s="25">
         <v>179.0</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="34">
+      <c r="E26" s="24">
         <v>7.0</v>
       </c>
       <c r="F26" s="16">
         <v>24.0</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="K26" s="26"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="H26" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="N26" s="35">
+        <v>1.0</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="37"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2263,92 +2068,131 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="36">
+        <v>43</v>
+      </c>
+      <c r="C27" s="25">
         <v>229.0</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="34">
+      <c r="E27" s="24">
         <v>7.0</v>
       </c>
       <c r="F27" s="12">
         <v>25.0</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="K27" s="26"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
+      <c r="H27" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="M27" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="N27" s="35">
+        <v>1.0</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="37"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="16">
         <v>26.0</v>
       </c>
-      <c r="B28" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="36">
+      <c r="B28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="25">
         <v>135.0</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="34">
+      <c r="E28" s="24">
         <v>7.0</v>
       </c>
       <c r="F28" s="16">
         <v>26.0</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="K28" s="26"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="H28" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="N28" s="38">
+        <v>4.0</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="37"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16">
         <v>27.0</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="36">
+      <c r="B29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="25">
         <v>150.0</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="34">
+      <c r="E29" s="24">
         <v>7.0</v>
       </c>
       <c r="F29" s="16">
         <v>27.0</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="H29" s="24">
+        <v>6.0</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="M29" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="N29" s="39">
+        <v>3.0</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="37"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2356,62 +2200,80 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="36">
+        <v>52</v>
+      </c>
+      <c r="C30" s="25">
         <v>166.0</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="34">
+      <c r="E30" s="24">
         <v>8.0</v>
       </c>
       <c r="F30" s="12">
         <v>28.0</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="H30" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="M30" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="N30" s="39">
+        <v>2.0</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="37"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="16">
         <v>29.0</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="36">
+      <c r="B31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="25">
         <v>154.0</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="34">
+      <c r="E31" s="24">
         <v>8.0</v>
       </c>
       <c r="F31" s="16">
         <v>29.0</v>
       </c>
-      <c r="I31" s="10"/>
-      <c r="J31" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="H31" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="M31" s="24">
+        <v>6.0</v>
+      </c>
+      <c r="N31" s="39">
+        <v>2.0</v>
+      </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -2425,28 +2287,37 @@
       <c r="A32" s="16">
         <v>30.0</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="36">
+      <c r="B32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="25">
         <v>210.0</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="34">
+      <c r="E32" s="24">
         <v>8.0</v>
       </c>
       <c r="F32" s="16">
         <v>30.0</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="K32" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="H32" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="39">
+        <v>5.0</v>
+      </c>
+      <c r="M32" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="N32" s="39">
+        <v>5.0</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2460,25 +2331,36 @@
       <c r="A33" s="12">
         <v>31.0</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="36">
+      <c r="B33" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="25">
         <v>117.0</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="34">
+      <c r="E33" s="24">
         <v>8.0</v>
       </c>
       <c r="F33" s="12">
         <v>31.0</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>66</v>
+      <c r="H33" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="M33" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="N33" s="39">
+        <v>5.0</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -2494,23 +2376,23 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="36">
+        <v>63</v>
+      </c>
+      <c r="C34" s="25">
         <v>159.0</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="34">
+      <c r="E34" s="24">
         <v>9.0</v>
       </c>
       <c r="F34" s="16">
         <v>32.0</v>
       </c>
-      <c r="J34" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>68</v>
+      <c r="M34" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="N34" s="39">
+        <v>5.0</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -2523,27 +2405,26 @@
       <c r="A35" s="16">
         <v>33.0</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="36">
+      <c r="B35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="25">
         <v>138.0</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="34">
+      <c r="E35" s="24">
         <v>9.0</v>
       </c>
       <c r="F35" s="16">
         <v>33.0</v>
       </c>
-      <c r="J35" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="K35" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="N35" s="39">
+        <v>6.0</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
@@ -2555,27 +2436,22 @@
       <c r="A36" s="12">
         <v>34.0</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="36">
+      <c r="B36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="25">
         <v>120.0</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="34">
+      <c r="E36" s="24">
         <v>9.0</v>
       </c>
       <c r="F36" s="12">
         <v>34.0</v>
       </c>
-      <c r="J36" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="30"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
@@ -2587,21 +2463,22 @@
       <c r="A37" s="16">
         <v>35.0</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="36">
+      <c r="B37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="25">
         <v>151.0</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="34">
+      <c r="E37" s="24">
         <v>9.0</v>
       </c>
       <c r="F37" s="16">
         <v>35.0</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="30"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -2614,20 +2491,21 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="36">
+        <v>67</v>
+      </c>
+      <c r="C38" s="25">
         <v>79.0</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="34">
+      <c r="E38" s="24">
         <v>10.0</v>
       </c>
       <c r="F38" s="16">
         <v>36.0</v>
       </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="30"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
@@ -2639,21 +2517,22 @@
       <c r="A39" s="12">
         <v>37.0</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="36">
+      <c r="B39" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="25">
         <v>95.0</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="34">
+      <c r="E39" s="24">
         <v>10.0</v>
       </c>
       <c r="F39" s="12">
         <v>37.0</v>
       </c>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="30"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -2665,21 +2544,22 @@
       <c r="A40" s="16">
         <v>38.0</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="36">
+      <c r="B40" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="25">
         <v>213.0</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="34">
+      <c r="E40" s="24">
         <v>10.0</v>
       </c>
       <c r="F40" s="16">
         <v>38.0</v>
       </c>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="30"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
@@ -2691,21 +2571,22 @@
       <c r="A41" s="16">
         <v>39.0</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="36">
+      <c r="B41" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="25">
         <v>136.0</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="34">
+      <c r="E41" s="24">
         <v>10.0</v>
       </c>
       <c r="F41" s="16">
         <v>39.0</v>
       </c>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="30"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -2719,24 +2600,22 @@
       <c r="A42" s="12">
         <v>40.0</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="36">
+      <c r="B42" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="25">
         <v>83.0</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="34">
+      <c r="E42" s="24">
         <v>10.0</v>
       </c>
       <c r="F42" s="12">
         <v>40.0</v>
       </c>
-      <c r="J42" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -2747,19 +2626,19 @@
       <c r="V42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="44"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="44"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="10"/>
       <c r="E43" s="4"/>
-      <c r="J43" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
+      <c r="J43" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="M43" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="N43" s="3"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -2775,15 +2654,22 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="J44" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="K44" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="30"/>
+      <c r="M44" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
@@ -2792,6 +2678,17 @@
       <c r="V44" s="4"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
@@ -2800,16 +2697,21 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="J45" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="K45" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="49"/>
-      <c r="M45" s="41"/>
-      <c r="Q45" s="4"/>
+      <c r="G45" s="42"/>
+      <c r="J45" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="L45" s="44"/>
+      <c r="M45" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="N45" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="10"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -2817,6 +2719,17 @@
       <c r="V45" s="4"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
@@ -2825,16 +2738,21 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="4"/>
-      <c r="J46" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="K46" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="41"/>
+      <c r="J46" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="L46" s="44"/>
+      <c r="M46" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="N46" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
@@ -2843,138 +2761,189 @@
       <c r="V46" s="4"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="44"/>
+      <c r="A47" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="40"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="46">
-        <v>4.0</v>
-      </c>
-      <c r="K47" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="Q47" s="4"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="10"/>
+      <c r="J47" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="N47" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="10"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
+      <c r="T47" s="21"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>87</v>
+      <c r="A48" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="26"/>
-      <c r="J48" s="48">
-        <v>5.0</v>
-      </c>
-      <c r="K48" s="54">
-        <v>5.0</v>
-      </c>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="Q48" s="4"/>
+      <c r="G48" s="30"/>
+      <c r="J48" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K48" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="L48" s="26"/>
+      <c r="M48" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="N48" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q48" s="10"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
+      <c r="T48" s="21"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="55">
+      <c r="A49" s="51">
         <v>1.0</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="26"/>
-      <c r="J49" s="48">
-        <v>6.0</v>
-      </c>
-      <c r="K49" s="54">
-        <v>6.0</v>
-      </c>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="Q49" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="J49" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K49" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="M49" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q49" s="10"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
+      <c r="T49" s="21"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="51">
         <v>1.0</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="J50" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="K50" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="L50" s="26"/>
+      <c r="M50" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="N50" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="Q50" s="4"/>
+      <c r="Q50" s="10"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
+      <c r="T50" s="21"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="55">
+      <c r="A51" s="51">
         <v>1.0</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="26"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="Q51" s="4"/>
+      <c r="E51" s="26"/>
+      <c r="G51" s="30"/>
+      <c r="J51" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="Q51" s="10"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
+      <c r="T51" s="21"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="51">
         <v>1.0</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="51" t="s">
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2983,195 +2952,213 @@
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
+      <c r="J52" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
+      <c r="T52" s="21"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="55">
+      <c r="A53" s="51">
         <v>1.0</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="53" t="s">
+      <c r="D53" s="30"/>
+      <c r="E53" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="G53" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="H53" s="56" t="s">
+      <c r="H53" s="40" t="s">
         <v>101</v>
       </c>
       <c r="I53" s="10"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
+      <c r="J53" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
+      <c r="T53" s="21"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="55">
+      <c r="A54" s="51">
         <v>2.0</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="51">
+        <v>23.0</v>
+      </c>
+      <c r="H54" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="55">
-        <v>1.0</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="G54" s="55">
-        <v>23.0</v>
-      </c>
-      <c r="H54" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
+      <c r="K54" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
+      <c r="T54" s="21"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="55">
+      <c r="A55" s="51">
         <v>2.0</v>
       </c>
-      <c r="B55" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="E55" s="55">
+      <c r="C55" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="51">
         <v>2.0</v>
       </c>
-      <c r="F55" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="55">
+      <c r="F55" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="51">
         <v>35.0</v>
       </c>
-      <c r="H55" s="57">
+      <c r="H55" s="40">
         <v>2.0</v>
       </c>
       <c r="I55" s="10"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="J55" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="K55" s="12">
+        <v>6.0</v>
+      </c>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
+      <c r="T55" s="21"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="55">
+      <c r="A56" s="51">
         <v>2.0</v>
       </c>
-      <c r="B56" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E56" s="55">
+      <c r="C56" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="51">
         <v>3.0</v>
       </c>
-      <c r="F56" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="55">
+      <c r="F56" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G56" s="51">
         <v>20.0</v>
       </c>
-      <c r="H56" s="57">
+      <c r="H56" s="40">
         <v>3.0</v>
       </c>
       <c r="I56" s="10"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
+      <c r="J56" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="K56" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
+      <c r="T56" s="21"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="55">
+      <c r="A57" s="51">
         <v>2.0</v>
       </c>
-      <c r="B57" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="55" t="s">
+      <c r="B57" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E57" s="55">
+      <c r="C57" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="51">
         <v>4.0</v>
       </c>
-      <c r="F57" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="G57" s="55">
+      <c r="F57" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="G57" s="51">
         <v>45.0</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="40">
         <v>4.0</v>
       </c>
-      <c r="I57" s="58"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
@@ -3179,34 +3166,39 @@
       <c r="V57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="55">
+      <c r="A58" s="51">
         <v>3.0</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="55">
+        <v>114</v>
+      </c>
+      <c r="E58" s="51">
         <v>5.0</v>
       </c>
-      <c r="F58" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="55">
+      <c r="F58" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="51">
         <v>58.0</v>
       </c>
-      <c r="H58" s="57">
+      <c r="H58" s="40">
         <v>4.0</v>
       </c>
       <c r="I58" s="10"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
+      <c r="J58" s="54">
+        <v>7.0</v>
+      </c>
+      <c r="K58" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
@@ -3214,34 +3206,38 @@
       <c r="V58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="55">
+      <c r="A59" s="51">
         <v>3.0</v>
       </c>
-      <c r="B59" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="55" t="s">
+      <c r="B59" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="55">
+      <c r="C59" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="51">
         <v>6.0</v>
       </c>
-      <c r="F59" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G59" s="55">
+      <c r="F59" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="51">
         <v>33.0</v>
       </c>
-      <c r="H59" s="57">
+      <c r="H59" s="40">
         <v>2.0</v>
       </c>
       <c r="I59" s="10"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
+      <c r="J59" s="54">
+        <v>7.0</v>
+      </c>
+      <c r="K59" s="55">
+        <v>5.0</v>
+      </c>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
@@ -3249,34 +3245,39 @@
       <c r="V59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="55">
+      <c r="A60" s="51">
         <v>3.0</v>
       </c>
-      <c r="B60" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="55" t="s">
+      <c r="B60" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E60" s="55">
+      <c r="C60" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60" s="51">
         <v>7.0</v>
       </c>
-      <c r="F60" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="55">
+      <c r="F60" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="51">
         <v>26.0</v>
       </c>
-      <c r="H60" s="57">
+      <c r="H60" s="40">
         <v>3.0</v>
       </c>
       <c r="I60" s="10"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
+      <c r="J60" s="54">
+        <v>8.0</v>
+      </c>
+      <c r="K60" s="55">
+        <v>1.0</v>
+      </c>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
@@ -3284,34 +3285,39 @@
       <c r="V60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="55">
+      <c r="A61" s="51">
         <v>4.0</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="55">
+        <v>122</v>
+      </c>
+      <c r="E61" s="51">
         <v>8.0</v>
       </c>
-      <c r="F61" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" s="55">
+      <c r="F61" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="51">
         <v>19.0</v>
       </c>
-      <c r="H61" s="57">
+      <c r="H61" s="40">
         <v>3.0</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
+      <c r="J61" s="54">
+        <v>8.0</v>
+      </c>
+      <c r="K61" s="55">
+        <v>5.0</v>
+      </c>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
@@ -3319,34 +3325,39 @@
       <c r="V61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="55">
+      <c r="A62" s="51">
         <v>4.0</v>
       </c>
-      <c r="B62" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="55" t="s">
+      <c r="B62" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="55">
+      <c r="C62" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="51">
         <v>9.0</v>
       </c>
-      <c r="F62" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="55">
+      <c r="F62" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="51">
         <v>42.0</v>
       </c>
-      <c r="H62" s="57">
+      <c r="H62" s="40">
         <v>2.0</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
+      <c r="J62" s="56">
+        <v>9.0</v>
+      </c>
+      <c r="K62" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
@@ -3354,34 +3365,39 @@
       <c r="V62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="55">
+      <c r="A63" s="51">
         <v>4.0</v>
       </c>
-      <c r="B63" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="55" t="s">
+      <c r="B63" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="E63" s="55">
+      <c r="C63" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="51">
         <v>10.0</v>
       </c>
-      <c r="F63" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" s="55">
+      <c r="F63" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="G63" s="51">
         <v>46.0</v>
       </c>
-      <c r="H63" s="57">
+      <c r="H63" s="40">
         <v>2.0</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
+      <c r="J63" s="56">
+        <v>9.0</v>
+      </c>
+      <c r="K63" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
@@ -3389,27 +3405,31 @@
       <c r="V63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="55">
+      <c r="A64" s="51">
         <v>5.0</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="26"/>
+      <c r="F64" s="30"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
+      <c r="J64" s="56">
+        <v>9.0</v>
+      </c>
+      <c r="K64" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
@@ -3417,27 +3437,31 @@
       <c r="V64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="55">
+      <c r="A65" s="51">
         <v>5.0</v>
       </c>
-      <c r="B65" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="55" t="s">
+      <c r="B65" s="51" t="s">
         <v>131</v>
       </c>
+      <c r="C65" s="51" t="s">
+        <v>132</v>
+      </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="59"/>
+      <c r="F65" s="48"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
+      <c r="J65" s="56">
+        <v>10.0</v>
+      </c>
+      <c r="K65" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
@@ -3445,27 +3469,31 @@
       <c r="V65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="55">
+      <c r="A66" s="51">
         <v>5.0</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C66" s="55" t="s">
-        <v>132</v>
+      <c r="C66" s="51" t="s">
+        <v>133</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="59"/>
+      <c r="F66" s="48"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
+      <c r="J66" s="56">
+        <v>10.0</v>
+      </c>
+      <c r="K66" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
@@ -3473,27 +3501,25 @@
       <c r="V66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="55">
+      <c r="A67" s="51">
         <v>5.0</v>
       </c>
-      <c r="B67" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="55" t="s">
+      <c r="B67" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="C67" s="51" t="s">
         <v>135</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="44"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
+      <c r="H67" s="40"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -3501,33 +3527,29 @@
       <c r="V67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="55">
+      <c r="A68" s="51">
         <v>6.0</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="E68" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="G68" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="57"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -3535,39 +3557,30 @@
       <c r="V68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="55">
+      <c r="A69" s="51">
         <v>6.0</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="55">
+      <c r="E69" s="51">
         <v>1.0</v>
       </c>
       <c r="F69" s="18">
         <v>1.0</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
@@ -3575,41 +3588,31 @@
       <c r="V69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="55">
+      <c r="A70" s="51">
         <v>6.0</v>
       </c>
-      <c r="B70" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="55">
+      <c r="B70" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="51">
         <v>2.0</v>
       </c>
       <c r="F70" s="18">
         <v>2.0</v>
       </c>
-      <c r="G70" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="H70" s="26"/>
-      <c r="I70" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="J70" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="K70" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
+      <c r="G70" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
@@ -3617,39 +3620,30 @@
       <c r="V70" s="6"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="55">
+      <c r="A71" s="51">
         <v>6.0</v>
       </c>
-      <c r="B71" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" s="55">
+      <c r="B71" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="51">
         <v>3.0</v>
       </c>
       <c r="F71" s="18">
         <v>3.0</v>
       </c>
-      <c r="G71" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="I71" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="J71" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="K71" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
+      <c r="G71" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
@@ -3657,37 +3651,28 @@
       <c r="V71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="55">
+      <c r="A72" s="51">
         <v>7.0</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E72" s="55">
+        <v>149</v>
+      </c>
+      <c r="E72" s="51">
         <v>4.0</v>
       </c>
       <c r="F72" s="18">
         <v>4.0</v>
       </c>
-      <c r="G72" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I72" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="J72" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="K72" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
+      <c r="G72" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
@@ -3695,37 +3680,28 @@
       <c r="V72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="55">
+      <c r="A73" s="51">
         <v>7.0</v>
       </c>
-      <c r="B73" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" s="55">
+      <c r="B73" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="51">
         <v>5.0</v>
       </c>
       <c r="F73" s="18">
         <v>4.0</v>
       </c>
-      <c r="G73" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="I73" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="J73" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="K73" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
+      <c r="G73" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
@@ -3733,31 +3709,31 @@
       <c r="V73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="55">
+      <c r="A74" s="51">
         <v>7.0</v>
       </c>
-      <c r="B74" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="55">
+      <c r="B74" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="51">
         <v>6.0</v>
       </c>
       <c r="F74" s="18">
         <v>2.0</v>
       </c>
-      <c r="G74" s="55" t="s">
-        <v>165</v>
+      <c r="G74" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
@@ -3765,31 +3741,31 @@
       <c r="V74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="55">
+      <c r="A75" s="51">
         <v>8.0</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="55">
+        <v>157</v>
+      </c>
+      <c r="E75" s="51">
         <v>7.0</v>
       </c>
       <c r="F75" s="18">
         <v>3.0</v>
       </c>
-      <c r="G75" s="55" t="s">
-        <v>167</v>
+      <c r="G75" s="51" t="s">
+        <v>158</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
@@ -3797,32 +3773,31 @@
       <c r="V75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="55">
+      <c r="A76" s="51">
         <v>8.0</v>
       </c>
-      <c r="B76" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="55">
+      <c r="B76" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="51">
         <v>8.0</v>
       </c>
       <c r="F76" s="18">
         <v>3.0</v>
       </c>
-      <c r="G76" s="55" t="s">
-        <v>170</v>
+      <c r="G76" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="Q76" s="10"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
@@ -3830,32 +3805,32 @@
       <c r="V76" s="6"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="55">
+      <c r="A77" s="51">
         <v>8.0</v>
       </c>
-      <c r="B77" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="55">
+      <c r="B77" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="51">
         <v>9.0</v>
       </c>
       <c r="F77" s="18">
         <v>2.0</v>
       </c>
-      <c r="G77" s="55" t="s">
-        <v>173</v>
+      <c r="G77" s="51" t="s">
+        <v>164</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
@@ -3863,32 +3838,33 @@
       <c r="V77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="55">
+      <c r="A78" s="51">
         <v>8.0</v>
       </c>
-      <c r="B78" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="C78" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="55">
+      <c r="B78" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="51">
         <v>10.0</v>
       </c>
       <c r="F78" s="18">
         <v>2.0</v>
       </c>
-      <c r="G78" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="G78" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H78" s="30"/>
+      <c r="I78" s="36" t="s">
+        <v>168</v>
+      </c>
       <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
@@ -3896,25 +3872,33 @@
       <c r="V78" s="6"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="55">
+      <c r="A79" s="51">
         <v>9.0</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="I79" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
@@ -3922,20 +3906,29 @@
       <c r="V79" s="6"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="55">
+      <c r="A80" s="51">
         <v>9.0</v>
       </c>
-      <c r="B80" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C80" s="55" t="s">
-        <v>179</v>
+      <c r="B80" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="J80" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="K80" s="59">
+        <v>0.0</v>
       </c>
       <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
@@ -3943,20 +3936,29 @@
       <c r="V80" s="6"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="55">
+      <c r="A81" s="51">
         <v>9.0</v>
       </c>
-      <c r="B81" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>181</v>
+      <c r="B81" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="I81" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="J81" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K81" s="59" t="s">
+        <v>178</v>
       </c>
       <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
@@ -3964,20 +3966,29 @@
       <c r="V81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="55">
+      <c r="A82" s="51">
         <v>9.0</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I82" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="J82" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="K82" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="55" t="s">
-        <v>183</v>
-      </c>
       <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
@@ -3985,20 +3996,29 @@
       <c r="V82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="55">
+      <c r="A83" s="51">
         <v>10.0</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I83" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="J83" s="58" t="s">
         <v>184</v>
       </c>
+      <c r="K83" s="59" t="s">
+        <v>185</v>
+      </c>
       <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
@@ -4006,20 +4026,20 @@
       <c r="V83" s="6"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="55">
+      <c r="A84" s="51">
         <v>10.0</v>
       </c>
-      <c r="B84" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="55" t="s">
-        <v>185</v>
+      <c r="B84" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>186</v>
       </c>
       <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
@@ -4027,20 +4047,20 @@
       <c r="V84" s="6"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="55">
+      <c r="A85" s="51">
         <v>10.0</v>
       </c>
-      <c r="B85" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="55" t="s">
-        <v>186</v>
+      <c r="B85" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>187</v>
       </c>
       <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
@@ -4048,20 +4068,18 @@
       <c r="V85" s="6"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="55">
+      <c r="A86" s="51">
         <v>10.0</v>
       </c>
-      <c r="B86" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="C86" s="55" t="s">
+      <c r="B86" s="51" t="s">
         <v>188</v>
       </c>
+      <c r="C86" s="51" t="s">
+        <v>189</v>
+      </c>
       <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
@@ -4070,10 +4088,8 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
@@ -4081,13 +4097,22 @@
       <c r="V87" s="4"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
@@ -4095,6 +4120,17 @@
       <c r="V88" s="4"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="4"/>
@@ -4102,10 +4138,8 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
@@ -4113,6 +4147,17 @@
       <c r="V89" s="4"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="6"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4"/>
@@ -4120,10 +4165,8 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
@@ -4131,6 +4174,17 @@
       <c r="V90" s="4"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4"/>
@@ -4138,10 +4192,10 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
-      <c r="Q91" s="4"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
@@ -4149,6 +4203,17 @@
       <c r="V91" s="4"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4"/>
@@ -4156,10 +4221,10 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
@@ -4167,6 +4232,17 @@
       <c r="V92" s="4"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="6"/>
+      <c r="AI92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4"/>
@@ -4185,6 +4261,17 @@
       <c r="V93" s="4"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AI93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="4"/>
@@ -4208,6 +4295,17 @@
       <c r="V94" s="4"/>
       <c r="W94" s="6"/>
       <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AI94" s="6"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="4"/>
@@ -4231,6 +4329,17 @@
       <c r="V95" s="4"/>
       <c r="W95" s="6"/>
       <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="4"/>
@@ -4254,6 +4363,17 @@
       <c r="V96" s="4"/>
       <c r="W96" s="6"/>
       <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
+      <c r="AD96" s="6"/>
+      <c r="AE96" s="6"/>
+      <c r="AF96" s="6"/>
+      <c r="AG96" s="6"/>
+      <c r="AH96" s="6"/>
+      <c r="AI96" s="6"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="4"/>
@@ -4277,6 +4397,17 @@
       <c r="V97" s="4"/>
       <c r="W97" s="6"/>
       <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="6"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="4"/>
@@ -4300,6 +4431,17 @@
       <c r="V98" s="4"/>
       <c r="W98" s="6"/>
       <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+      <c r="AF98" s="6"/>
+      <c r="AG98" s="6"/>
+      <c r="AH98" s="6"/>
+      <c r="AI98" s="6"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="4"/>
@@ -4323,6 +4465,17 @@
       <c r="V99" s="4"/>
       <c r="W99" s="6"/>
       <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
+      <c r="AD99" s="6"/>
+      <c r="AE99" s="6"/>
+      <c r="AF99" s="6"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="6"/>
+      <c r="AI99" s="6"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="4"/>
@@ -4346,6 +4499,17 @@
       <c r="V100" s="4"/>
       <c r="W100" s="6"/>
       <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+      <c r="AG100" s="6"/>
+      <c r="AH100" s="6"/>
+      <c r="AI100" s="6"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="10"/>
@@ -4369,6 +4533,17 @@
       <c r="V101" s="4"/>
       <c r="W101" s="6"/>
       <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="6"/>
+      <c r="AI101" s="6"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="10"/>
@@ -4392,6 +4567,17 @@
       <c r="V102" s="4"/>
       <c r="W102" s="6"/>
       <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="6"/>
+      <c r="AI102" s="6"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="10"/>
@@ -4414,6 +4600,17 @@
       <c r="V103" s="4"/>
       <c r="W103" s="6"/>
       <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="6"/>
+      <c r="AI103" s="6"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="10"/>
@@ -4436,6 +4633,17 @@
       <c r="V104" s="4"/>
       <c r="W104" s="6"/>
       <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="6"/>
+      <c r="AI104" s="6"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="10"/>
@@ -4459,6 +4667,17 @@
       <c r="V105" s="4"/>
       <c r="W105" s="6"/>
       <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="6"/>
+      <c r="AI105" s="6"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="10"/>
@@ -4482,6 +4701,17 @@
       <c r="V106" s="4"/>
       <c r="W106" s="6"/>
       <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
+      <c r="AD106" s="6"/>
+      <c r="AE106" s="6"/>
+      <c r="AF106" s="6"/>
+      <c r="AG106" s="6"/>
+      <c r="AH106" s="6"/>
+      <c r="AI106" s="6"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="10"/>
@@ -4505,6 +4735,17 @@
       <c r="V107" s="4"/>
       <c r="W107" s="6"/>
       <c r="X107" s="6"/>
+      <c r="Y107" s="6"/>
+      <c r="Z107" s="6"/>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="6"/>
+      <c r="AD107" s="6"/>
+      <c r="AE107" s="6"/>
+      <c r="AF107" s="6"/>
+      <c r="AG107" s="6"/>
+      <c r="AH107" s="6"/>
+      <c r="AI107" s="6"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="10"/>
@@ -4528,6 +4769,17 @@
       <c r="V108" s="4"/>
       <c r="W108" s="6"/>
       <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
+      <c r="AD108" s="6"/>
+      <c r="AE108" s="6"/>
+      <c r="AF108" s="6"/>
+      <c r="AG108" s="6"/>
+      <c r="AH108" s="6"/>
+      <c r="AI108" s="6"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="10"/>
@@ -4551,6 +4803,17 @@
       <c r="V109" s="4"/>
       <c r="W109" s="6"/>
       <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
+      <c r="AD109" s="6"/>
+      <c r="AE109" s="6"/>
+      <c r="AF109" s="6"/>
+      <c r="AG109" s="6"/>
+      <c r="AH109" s="6"/>
+      <c r="AI109" s="6"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="10"/>
@@ -4574,6 +4837,17 @@
       <c r="V110" s="4"/>
       <c r="W110" s="6"/>
       <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
+      <c r="AE110" s="6"/>
+      <c r="AF110" s="6"/>
+      <c r="AG110" s="6"/>
+      <c r="AH110" s="6"/>
+      <c r="AI110" s="6"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="10"/>
@@ -4597,6 +4871,17 @@
       <c r="V111" s="4"/>
       <c r="W111" s="6"/>
       <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
+      <c r="AD111" s="6"/>
+      <c r="AE111" s="6"/>
+      <c r="AF111" s="6"/>
+      <c r="AG111" s="6"/>
+      <c r="AH111" s="6"/>
+      <c r="AI111" s="6"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="10"/>
@@ -4620,6 +4905,17 @@
       <c r="V112" s="4"/>
       <c r="W112" s="6"/>
       <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="6"/>
+      <c r="AG112" s="6"/>
+      <c r="AH112" s="6"/>
+      <c r="AI112" s="6"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="10"/>
@@ -4643,6 +4939,17 @@
       <c r="V113" s="4"/>
       <c r="W113" s="6"/>
       <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="6"/>
+      <c r="AF113" s="6"/>
+      <c r="AG113" s="6"/>
+      <c r="AH113" s="6"/>
+      <c r="AI113" s="6"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="10"/>
@@ -4666,6 +4973,17 @@
       <c r="V114" s="4"/>
       <c r="W114" s="6"/>
       <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="6"/>
+      <c r="AF114" s="6"/>
+      <c r="AG114" s="6"/>
+      <c r="AH114" s="6"/>
+      <c r="AI114" s="6"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="10"/>
@@ -4689,6 +5007,17 @@
       <c r="V115" s="4"/>
       <c r="W115" s="6"/>
       <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="6"/>
+      <c r="AF115" s="6"/>
+      <c r="AG115" s="6"/>
+      <c r="AH115" s="6"/>
+      <c r="AI115" s="6"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="10"/>
@@ -4712,6 +5041,17 @@
       <c r="V116" s="4"/>
       <c r="W116" s="6"/>
       <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
+      <c r="Z116" s="6"/>
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
+      <c r="AD116" s="6"/>
+      <c r="AE116" s="6"/>
+      <c r="AF116" s="6"/>
+      <c r="AG116" s="6"/>
+      <c r="AH116" s="6"/>
+      <c r="AI116" s="6"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="10"/>
@@ -4735,6 +5075,17 @@
       <c r="V117" s="4"/>
       <c r="W117" s="6"/>
       <c r="X117" s="6"/>
+      <c r="Y117" s="6"/>
+      <c r="Z117" s="6"/>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
+      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
+      <c r="AF117" s="6"/>
+      <c r="AG117" s="6"/>
+      <c r="AH117" s="6"/>
+      <c r="AI117" s="6"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="10"/>
@@ -4758,6 +5109,17 @@
       <c r="V118" s="4"/>
       <c r="W118" s="6"/>
       <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
+      <c r="Z118" s="6"/>
+      <c r="AA118" s="6"/>
+      <c r="AB118" s="6"/>
+      <c r="AC118" s="6"/>
+      <c r="AD118" s="6"/>
+      <c r="AE118" s="6"/>
+      <c r="AF118" s="6"/>
+      <c r="AG118" s="6"/>
+      <c r="AH118" s="6"/>
+      <c r="AI118" s="6"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="10"/>
@@ -4780,6 +5142,17 @@
       <c r="V119" s="4"/>
       <c r="W119" s="6"/>
       <c r="X119" s="6"/>
+      <c r="Y119" s="6"/>
+      <c r="Z119" s="6"/>
+      <c r="AA119" s="6"/>
+      <c r="AB119" s="6"/>
+      <c r="AC119" s="6"/>
+      <c r="AD119" s="6"/>
+      <c r="AE119" s="6"/>
+      <c r="AF119" s="6"/>
+      <c r="AG119" s="6"/>
+      <c r="AH119" s="6"/>
+      <c r="AI119" s="6"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="10"/>
@@ -4802,6 +5175,17 @@
       <c r="V120" s="4"/>
       <c r="W120" s="6"/>
       <c r="X120" s="6"/>
+      <c r="Y120" s="6"/>
+      <c r="Z120" s="6"/>
+      <c r="AA120" s="6"/>
+      <c r="AB120" s="6"/>
+      <c r="AC120" s="6"/>
+      <c r="AD120" s="6"/>
+      <c r="AE120" s="6"/>
+      <c r="AF120" s="6"/>
+      <c r="AG120" s="6"/>
+      <c r="AH120" s="6"/>
+      <c r="AI120" s="6"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="10"/>
@@ -4824,6 +5208,17 @@
       <c r="V121" s="4"/>
       <c r="W121" s="6"/>
       <c r="X121" s="6"/>
+      <c r="Y121" s="6"/>
+      <c r="Z121" s="6"/>
+      <c r="AA121" s="6"/>
+      <c r="AB121" s="6"/>
+      <c r="AC121" s="6"/>
+      <c r="AD121" s="6"/>
+      <c r="AE121" s="6"/>
+      <c r="AF121" s="6"/>
+      <c r="AG121" s="6"/>
+      <c r="AH121" s="6"/>
+      <c r="AI121" s="6"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="10"/>
@@ -4846,6 +5241,17 @@
       <c r="V122" s="4"/>
       <c r="W122" s="6"/>
       <c r="X122" s="6"/>
+      <c r="Y122" s="6"/>
+      <c r="Z122" s="6"/>
+      <c r="AA122" s="6"/>
+      <c r="AB122" s="6"/>
+      <c r="AC122" s="6"/>
+      <c r="AD122" s="6"/>
+      <c r="AE122" s="6"/>
+      <c r="AF122" s="6"/>
+      <c r="AG122" s="6"/>
+      <c r="AH122" s="6"/>
+      <c r="AI122" s="6"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="10"/>
@@ -4868,6 +5274,17 @@
       <c r="V123" s="4"/>
       <c r="W123" s="6"/>
       <c r="X123" s="6"/>
+      <c r="Y123" s="6"/>
+      <c r="Z123" s="6"/>
+      <c r="AA123" s="6"/>
+      <c r="AB123" s="6"/>
+      <c r="AC123" s="6"/>
+      <c r="AD123" s="6"/>
+      <c r="AE123" s="6"/>
+      <c r="AF123" s="6"/>
+      <c r="AG123" s="6"/>
+      <c r="AH123" s="6"/>
+      <c r="AI123" s="6"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4"/>
@@ -4890,6 +5307,17 @@
       <c r="V124" s="4"/>
       <c r="W124" s="6"/>
       <c r="X124" s="6"/>
+      <c r="Y124" s="6"/>
+      <c r="Z124" s="6"/>
+      <c r="AA124" s="6"/>
+      <c r="AB124" s="6"/>
+      <c r="AC124" s="6"/>
+      <c r="AD124" s="6"/>
+      <c r="AE124" s="6"/>
+      <c r="AF124" s="6"/>
+      <c r="AG124" s="6"/>
+      <c r="AH124" s="6"/>
+      <c r="AI124" s="6"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4"/>
@@ -4912,6 +5340,17 @@
       <c r="V125" s="4"/>
       <c r="W125" s="6"/>
       <c r="X125" s="6"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="6"/>
+      <c r="AA125" s="6"/>
+      <c r="AB125" s="6"/>
+      <c r="AC125" s="6"/>
+      <c r="AD125" s="6"/>
+      <c r="AE125" s="6"/>
+      <c r="AF125" s="6"/>
+      <c r="AG125" s="6"/>
+      <c r="AH125" s="6"/>
+      <c r="AI125" s="6"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4"/>
@@ -4934,6 +5373,17 @@
       <c r="V126" s="4"/>
       <c r="W126" s="6"/>
       <c r="X126" s="6"/>
+      <c r="Y126" s="6"/>
+      <c r="Z126" s="6"/>
+      <c r="AA126" s="6"/>
+      <c r="AB126" s="6"/>
+      <c r="AC126" s="6"/>
+      <c r="AD126" s="6"/>
+      <c r="AE126" s="6"/>
+      <c r="AF126" s="6"/>
+      <c r="AG126" s="6"/>
+      <c r="AH126" s="6"/>
+      <c r="AI126" s="6"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="4"/>
@@ -4956,6 +5406,17 @@
       <c r="V127" s="4"/>
       <c r="W127" s="6"/>
       <c r="X127" s="6"/>
+      <c r="Y127" s="6"/>
+      <c r="Z127" s="6"/>
+      <c r="AA127" s="6"/>
+      <c r="AB127" s="6"/>
+      <c r="AC127" s="6"/>
+      <c r="AD127" s="6"/>
+      <c r="AE127" s="6"/>
+      <c r="AF127" s="6"/>
+      <c r="AG127" s="6"/>
+      <c r="AH127" s="6"/>
+      <c r="AI127" s="6"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="4"/>
@@ -4977,6 +5438,17 @@
       <c r="V128" s="4"/>
       <c r="W128" s="6"/>
       <c r="X128" s="6"/>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="6"/>
+      <c r="AA128" s="6"/>
+      <c r="AB128" s="6"/>
+      <c r="AC128" s="6"/>
+      <c r="AD128" s="6"/>
+      <c r="AE128" s="6"/>
+      <c r="AF128" s="6"/>
+      <c r="AG128" s="6"/>
+      <c r="AH128" s="6"/>
+      <c r="AI128" s="6"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4"/>
@@ -4998,6 +5470,17 @@
       <c r="V129" s="4"/>
       <c r="W129" s="6"/>
       <c r="X129" s="6"/>
+      <c r="Y129" s="6"/>
+      <c r="Z129" s="6"/>
+      <c r="AA129" s="6"/>
+      <c r="AB129" s="6"/>
+      <c r="AC129" s="6"/>
+      <c r="AD129" s="6"/>
+      <c r="AE129" s="6"/>
+      <c r="AF129" s="6"/>
+      <c r="AG129" s="6"/>
+      <c r="AH129" s="6"/>
+      <c r="AI129" s="6"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4"/>
@@ -5019,6 +5502,17 @@
       <c r="V130" s="4"/>
       <c r="W130" s="6"/>
       <c r="X130" s="6"/>
+      <c r="Y130" s="6"/>
+      <c r="Z130" s="6"/>
+      <c r="AA130" s="6"/>
+      <c r="AB130" s="6"/>
+      <c r="AC130" s="6"/>
+      <c r="AD130" s="6"/>
+      <c r="AE130" s="6"/>
+      <c r="AF130" s="6"/>
+      <c r="AG130" s="6"/>
+      <c r="AH130" s="6"/>
+      <c r="AI130" s="6"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4"/>
@@ -5040,6 +5534,17 @@
       <c r="V131" s="4"/>
       <c r="W131" s="6"/>
       <c r="X131" s="6"/>
+      <c r="Y131" s="6"/>
+      <c r="Z131" s="6"/>
+      <c r="AA131" s="6"/>
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="6"/>
+      <c r="AD131" s="6"/>
+      <c r="AE131" s="6"/>
+      <c r="AF131" s="6"/>
+      <c r="AG131" s="6"/>
+      <c r="AH131" s="6"/>
+      <c r="AI131" s="6"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4"/>
@@ -5061,6 +5566,17 @@
       <c r="V132" s="4"/>
       <c r="W132" s="6"/>
       <c r="X132" s="6"/>
+      <c r="Y132" s="6"/>
+      <c r="Z132" s="6"/>
+      <c r="AA132" s="6"/>
+      <c r="AB132" s="6"/>
+      <c r="AC132" s="6"/>
+      <c r="AD132" s="6"/>
+      <c r="AE132" s="6"/>
+      <c r="AF132" s="6"/>
+      <c r="AG132" s="6"/>
+      <c r="AH132" s="6"/>
+      <c r="AI132" s="6"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4"/>
@@ -5082,6 +5598,17 @@
       <c r="V133" s="4"/>
       <c r="W133" s="6"/>
       <c r="X133" s="6"/>
+      <c r="Y133" s="6"/>
+      <c r="Z133" s="6"/>
+      <c r="AA133" s="6"/>
+      <c r="AB133" s="6"/>
+      <c r="AC133" s="6"/>
+      <c r="AD133" s="6"/>
+      <c r="AE133" s="6"/>
+      <c r="AF133" s="6"/>
+      <c r="AG133" s="6"/>
+      <c r="AH133" s="6"/>
+      <c r="AI133" s="6"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4"/>
@@ -5103,6 +5630,17 @@
       <c r="V134" s="4"/>
       <c r="W134" s="6"/>
       <c r="X134" s="6"/>
+      <c r="Y134" s="6"/>
+      <c r="Z134" s="6"/>
+      <c r="AA134" s="6"/>
+      <c r="AB134" s="6"/>
+      <c r="AC134" s="6"/>
+      <c r="AD134" s="6"/>
+      <c r="AE134" s="6"/>
+      <c r="AF134" s="6"/>
+      <c r="AG134" s="6"/>
+      <c r="AH134" s="6"/>
+      <c r="AI134" s="6"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4"/>
@@ -5124,6 +5662,17 @@
       <c r="V135" s="4"/>
       <c r="W135" s="6"/>
       <c r="X135" s="6"/>
+      <c r="Y135" s="6"/>
+      <c r="Z135" s="6"/>
+      <c r="AA135" s="6"/>
+      <c r="AB135" s="6"/>
+      <c r="AC135" s="6"/>
+      <c r="AD135" s="6"/>
+      <c r="AE135" s="6"/>
+      <c r="AF135" s="6"/>
+      <c r="AG135" s="6"/>
+      <c r="AH135" s="6"/>
+      <c r="AI135" s="6"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4"/>
@@ -5145,6 +5694,17 @@
       <c r="V136" s="4"/>
       <c r="W136" s="6"/>
       <c r="X136" s="6"/>
+      <c r="Y136" s="6"/>
+      <c r="Z136" s="6"/>
+      <c r="AA136" s="6"/>
+      <c r="AB136" s="6"/>
+      <c r="AC136" s="6"/>
+      <c r="AD136" s="6"/>
+      <c r="AE136" s="6"/>
+      <c r="AF136" s="6"/>
+      <c r="AG136" s="6"/>
+      <c r="AH136" s="6"/>
+      <c r="AI136" s="6"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="4"/>
@@ -5166,6 +5726,17 @@
       <c r="V137" s="4"/>
       <c r="W137" s="6"/>
       <c r="X137" s="6"/>
+      <c r="Y137" s="6"/>
+      <c r="Z137" s="6"/>
+      <c r="AA137" s="6"/>
+      <c r="AB137" s="6"/>
+      <c r="AC137" s="6"/>
+      <c r="AD137" s="6"/>
+      <c r="AE137" s="6"/>
+      <c r="AF137" s="6"/>
+      <c r="AG137" s="6"/>
+      <c r="AH137" s="6"/>
+      <c r="AI137" s="6"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4"/>
@@ -5187,6 +5758,17 @@
       <c r="V138" s="4"/>
       <c r="W138" s="6"/>
       <c r="X138" s="6"/>
+      <c r="Y138" s="6"/>
+      <c r="Z138" s="6"/>
+      <c r="AA138" s="6"/>
+      <c r="AB138" s="6"/>
+      <c r="AC138" s="6"/>
+      <c r="AD138" s="6"/>
+      <c r="AE138" s="6"/>
+      <c r="AF138" s="6"/>
+      <c r="AG138" s="6"/>
+      <c r="AH138" s="6"/>
+      <c r="AI138" s="6"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4"/>
@@ -5208,6 +5790,17 @@
       <c r="V139" s="4"/>
       <c r="W139" s="6"/>
       <c r="X139" s="6"/>
+      <c r="Y139" s="6"/>
+      <c r="Z139" s="6"/>
+      <c r="AA139" s="6"/>
+      <c r="AB139" s="6"/>
+      <c r="AC139" s="6"/>
+      <c r="AD139" s="6"/>
+      <c r="AE139" s="6"/>
+      <c r="AF139" s="6"/>
+      <c r="AG139" s="6"/>
+      <c r="AH139" s="6"/>
+      <c r="AI139" s="6"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="4"/>
@@ -5229,6 +5822,17 @@
       <c r="V140" s="4"/>
       <c r="W140" s="6"/>
       <c r="X140" s="6"/>
+      <c r="Y140" s="6"/>
+      <c r="Z140" s="6"/>
+      <c r="AA140" s="6"/>
+      <c r="AB140" s="6"/>
+      <c r="AC140" s="6"/>
+      <c r="AD140" s="6"/>
+      <c r="AE140" s="6"/>
+      <c r="AF140" s="6"/>
+      <c r="AG140" s="6"/>
+      <c r="AH140" s="6"/>
+      <c r="AI140" s="6"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="4"/>
@@ -5250,6 +5854,17 @@
       <c r="V141" s="4"/>
       <c r="W141" s="6"/>
       <c r="X141" s="6"/>
+      <c r="Y141" s="6"/>
+      <c r="Z141" s="6"/>
+      <c r="AA141" s="6"/>
+      <c r="AB141" s="6"/>
+      <c r="AC141" s="6"/>
+      <c r="AD141" s="6"/>
+      <c r="AE141" s="6"/>
+      <c r="AF141" s="6"/>
+      <c r="AG141" s="6"/>
+      <c r="AH141" s="6"/>
+      <c r="AI141" s="6"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="4"/>
@@ -5271,6 +5886,17 @@
       <c r="V142" s="4"/>
       <c r="W142" s="6"/>
       <c r="X142" s="6"/>
+      <c r="Y142" s="6"/>
+      <c r="Z142" s="6"/>
+      <c r="AA142" s="6"/>
+      <c r="AB142" s="6"/>
+      <c r="AC142" s="6"/>
+      <c r="AD142" s="6"/>
+      <c r="AE142" s="6"/>
+      <c r="AF142" s="6"/>
+      <c r="AG142" s="6"/>
+      <c r="AH142" s="6"/>
+      <c r="AI142" s="6"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="4"/>
@@ -5292,6 +5918,17 @@
       <c r="V143" s="4"/>
       <c r="W143" s="6"/>
       <c r="X143" s="6"/>
+      <c r="Y143" s="6"/>
+      <c r="Z143" s="6"/>
+      <c r="AA143" s="6"/>
+      <c r="AB143" s="6"/>
+      <c r="AC143" s="6"/>
+      <c r="AD143" s="6"/>
+      <c r="AE143" s="6"/>
+      <c r="AF143" s="6"/>
+      <c r="AG143" s="6"/>
+      <c r="AH143" s="6"/>
+      <c r="AI143" s="6"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="4"/>
@@ -5313,6 +5950,17 @@
       <c r="V144" s="4"/>
       <c r="W144" s="6"/>
       <c r="X144" s="6"/>
+      <c r="Y144" s="6"/>
+      <c r="Z144" s="6"/>
+      <c r="AA144" s="6"/>
+      <c r="AB144" s="6"/>
+      <c r="AC144" s="6"/>
+      <c r="AD144" s="6"/>
+      <c r="AE144" s="6"/>
+      <c r="AF144" s="6"/>
+      <c r="AG144" s="6"/>
+      <c r="AH144" s="6"/>
+      <c r="AI144" s="6"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="4"/>
@@ -5334,6 +5982,17 @@
       <c r="V145" s="4"/>
       <c r="W145" s="6"/>
       <c r="X145" s="6"/>
+      <c r="Y145" s="6"/>
+      <c r="Z145" s="6"/>
+      <c r="AA145" s="6"/>
+      <c r="AB145" s="6"/>
+      <c r="AC145" s="6"/>
+      <c r="AD145" s="6"/>
+      <c r="AE145" s="6"/>
+      <c r="AF145" s="6"/>
+      <c r="AG145" s="6"/>
+      <c r="AH145" s="6"/>
+      <c r="AI145" s="6"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="4"/>
@@ -5355,6 +6014,17 @@
       <c r="V146" s="4"/>
       <c r="W146" s="6"/>
       <c r="X146" s="6"/>
+      <c r="Y146" s="6"/>
+      <c r="Z146" s="6"/>
+      <c r="AA146" s="6"/>
+      <c r="AB146" s="6"/>
+      <c r="AC146" s="6"/>
+      <c r="AD146" s="6"/>
+      <c r="AE146" s="6"/>
+      <c r="AF146" s="6"/>
+      <c r="AG146" s="6"/>
+      <c r="AH146" s="6"/>
+      <c r="AI146" s="6"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="4"/>
@@ -5376,6 +6046,17 @@
       <c r="V147" s="4"/>
       <c r="W147" s="6"/>
       <c r="X147" s="6"/>
+      <c r="Y147" s="6"/>
+      <c r="Z147" s="6"/>
+      <c r="AA147" s="6"/>
+      <c r="AB147" s="6"/>
+      <c r="AC147" s="6"/>
+      <c r="AD147" s="6"/>
+      <c r="AE147" s="6"/>
+      <c r="AF147" s="6"/>
+      <c r="AG147" s="6"/>
+      <c r="AH147" s="6"/>
+      <c r="AI147" s="6"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="4"/>
@@ -5397,6 +6078,17 @@
       <c r="V148" s="4"/>
       <c r="W148" s="6"/>
       <c r="X148" s="6"/>
+      <c r="Y148" s="6"/>
+      <c r="Z148" s="6"/>
+      <c r="AA148" s="6"/>
+      <c r="AB148" s="6"/>
+      <c r="AC148" s="6"/>
+      <c r="AD148" s="6"/>
+      <c r="AE148" s="6"/>
+      <c r="AF148" s="6"/>
+      <c r="AG148" s="6"/>
+      <c r="AH148" s="6"/>
+      <c r="AI148" s="6"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="4"/>
@@ -5418,6 +6110,17 @@
       <c r="V149" s="4"/>
       <c r="W149" s="6"/>
       <c r="X149" s="6"/>
+      <c r="Y149" s="6"/>
+      <c r="Z149" s="6"/>
+      <c r="AA149" s="6"/>
+      <c r="AB149" s="6"/>
+      <c r="AC149" s="6"/>
+      <c r="AD149" s="6"/>
+      <c r="AE149" s="6"/>
+      <c r="AF149" s="6"/>
+      <c r="AG149" s="6"/>
+      <c r="AH149" s="6"/>
+      <c r="AI149" s="6"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="4"/>
@@ -5439,6 +6142,17 @@
       <c r="V150" s="4"/>
       <c r="W150" s="6"/>
       <c r="X150" s="6"/>
+      <c r="Y150" s="6"/>
+      <c r="Z150" s="6"/>
+      <c r="AA150" s="6"/>
+      <c r="AB150" s="6"/>
+      <c r="AC150" s="6"/>
+      <c r="AD150" s="6"/>
+      <c r="AE150" s="6"/>
+      <c r="AF150" s="6"/>
+      <c r="AG150" s="6"/>
+      <c r="AH150" s="6"/>
+      <c r="AI150" s="6"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="4"/>
@@ -5460,6 +6174,17 @@
       <c r="V151" s="4"/>
       <c r="W151" s="6"/>
       <c r="X151" s="6"/>
+      <c r="Y151" s="6"/>
+      <c r="Z151" s="6"/>
+      <c r="AA151" s="6"/>
+      <c r="AB151" s="6"/>
+      <c r="AC151" s="6"/>
+      <c r="AD151" s="6"/>
+      <c r="AE151" s="6"/>
+      <c r="AF151" s="6"/>
+      <c r="AG151" s="6"/>
+      <c r="AH151" s="6"/>
+      <c r="AI151" s="6"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="4"/>
@@ -5481,6 +6206,17 @@
       <c r="V152" s="4"/>
       <c r="W152" s="6"/>
       <c r="X152" s="6"/>
+      <c r="Y152" s="6"/>
+      <c r="Z152" s="6"/>
+      <c r="AA152" s="6"/>
+      <c r="AB152" s="6"/>
+      <c r="AC152" s="6"/>
+      <c r="AD152" s="6"/>
+      <c r="AE152" s="6"/>
+      <c r="AF152" s="6"/>
+      <c r="AG152" s="6"/>
+      <c r="AH152" s="6"/>
+      <c r="AI152" s="6"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4"/>
@@ -5502,6 +6238,17 @@
       <c r="V153" s="4"/>
       <c r="W153" s="6"/>
       <c r="X153" s="6"/>
+      <c r="Y153" s="6"/>
+      <c r="Z153" s="6"/>
+      <c r="AA153" s="6"/>
+      <c r="AB153" s="6"/>
+      <c r="AC153" s="6"/>
+      <c r="AD153" s="6"/>
+      <c r="AE153" s="6"/>
+      <c r="AF153" s="6"/>
+      <c r="AG153" s="6"/>
+      <c r="AH153" s="6"/>
+      <c r="AI153" s="6"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="4"/>
@@ -5523,6 +6270,17 @@
       <c r="V154" s="4"/>
       <c r="W154" s="6"/>
       <c r="X154" s="6"/>
+      <c r="Y154" s="6"/>
+      <c r="Z154" s="6"/>
+      <c r="AA154" s="6"/>
+      <c r="AB154" s="6"/>
+      <c r="AC154" s="6"/>
+      <c r="AD154" s="6"/>
+      <c r="AE154" s="6"/>
+      <c r="AF154" s="6"/>
+      <c r="AG154" s="6"/>
+      <c r="AH154" s="6"/>
+      <c r="AI154" s="6"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="4"/>
@@ -5544,6 +6302,17 @@
       <c r="V155" s="4"/>
       <c r="W155" s="6"/>
       <c r="X155" s="6"/>
+      <c r="Y155" s="6"/>
+      <c r="Z155" s="6"/>
+      <c r="AA155" s="6"/>
+      <c r="AB155" s="6"/>
+      <c r="AC155" s="6"/>
+      <c r="AD155" s="6"/>
+      <c r="AE155" s="6"/>
+      <c r="AF155" s="6"/>
+      <c r="AG155" s="6"/>
+      <c r="AH155" s="6"/>
+      <c r="AI155" s="6"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="4"/>
@@ -5563,6 +6332,17 @@
       <c r="V156" s="4"/>
       <c r="W156" s="6"/>
       <c r="X156" s="6"/>
+      <c r="Y156" s="6"/>
+      <c r="Z156" s="6"/>
+      <c r="AA156" s="6"/>
+      <c r="AB156" s="6"/>
+      <c r="AC156" s="6"/>
+      <c r="AD156" s="6"/>
+      <c r="AE156" s="6"/>
+      <c r="AF156" s="6"/>
+      <c r="AG156" s="6"/>
+      <c r="AH156" s="6"/>
+      <c r="AI156" s="6"/>
     </row>
     <row r="157" ht="15.75" customHeight="1"/>
     <row r="158" ht="15.75" customHeight="1"/>
@@ -6342,16 +7122,17 @@
     <row r="932" ht="15.75" customHeight="1"/>
     <row r="933" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="J29:K29"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E67:G67"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="I78:K78"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -6360,9 +7141,6 @@
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -6381,583 +7159,516 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="60">
+        <v>23.0</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="60">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="60">
+        <v>35.0</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="60">
+        <v>20.0</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="60">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="60">
+        <v>45.0</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="60">
+        <v>58.0</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="60">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="60">
+        <v>33.0</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="60">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="60">
+        <v>26.0</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="60">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="60">
+        <v>19.0</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="60">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="60">
+        <v>42.0</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="60">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="60">
+        <v>46.0</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="60">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="60">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="60">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="60">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="60">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="62">
-        <v>23.0</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="62">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="62">
-        <v>35.0</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="62">
-        <v>20.0</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="62">
-        <v>45.0</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="62">
-        <v>58.0</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="62">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="62">
-        <v>33.0</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="63">
-        <v>6.0</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="62">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="62">
-        <v>26.0</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="63">
-        <v>7.0</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="62">
+      <c r="D20" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="60">
         <v>8.0</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="62">
-        <v>19.0</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" s="63">
-        <v>8.0</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="62">
+      <c r="B21" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="60">
         <v>9.0</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="62">
-        <v>42.0</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="63">
-        <v>9.0</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="62">
+      <c r="B22" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="60">
         <v>10.0</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="62">
-        <v>46.0</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="63">
-        <v>10.0</v>
-      </c>
-      <c r="K11" s="63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="62">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="64" t="s">
+      <c r="C23" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E23" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="62">
-        <v>6.0</v>
-      </c>
-      <c r="B19" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="62">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="62">
-        <v>8.0</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="62">
-        <v>9.0</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="62">
-        <v>10.0</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>42</v>
+      <c r="F23" s="60" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="233">
   <si>
     <t>TABELA cancoes</t>
   </si>
@@ -311,277 +311,277 @@
     <t>usuario_id</t>
   </si>
   <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>"2020-01-02 07:40:33"</t>
+  </si>
+  <si>
+    <t>Thati</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Finding My Traditions"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-05-16 06:16:22"</t>
+  </si>
+  <si>
+    <t>Cintia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Without My Love"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-10-09 12:27:48"</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Baby"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-09-21 13:14:46"</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>"2020-11-13 16:55:13"</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Dance With Her Own"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-12-05 18:38:30"</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Hard And Time"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-07-30 10:00:00"</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>"2021-08-15 17:10:10"</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "I Ride Alone"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2021-07-10 15:20:30"</t>
+  </si>
+  <si>
+    <t>Angelina</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Honey, I'm A Lone Wolf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2021-01-09 01:44:33"</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>"2020-07-03 19:33:28"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Rock His Everything"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-02-24 21:14:22"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-08-06 15:23:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Soul For Us"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-11-10 13:52:27"</t>
+  </si>
+  <si>
+    <t>TABELA usuario_planos</t>
+  </si>
+  <si>
+    <t>"2019-02-07 20:33:48"</t>
+  </si>
+  <si>
+    <t>FK - plano_id</t>
+  </si>
+  <si>
+    <t>data_assinatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He Heard You're Bad For Me"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-01-24 00:31:17"</t>
+  </si>
+  <si>
+    <t>2019-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He Hopes We Can't Stay"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-10-12 12:35:20"</t>
+  </si>
+  <si>
+    <t>2017-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "Walking And Game"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2018-05-29 14:56:41"</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>"2018-05-09 22:30:49"</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Troubles Of My Inner Fire"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-07-27 12:52:58"</t>
+  </si>
+  <si>
+    <t>2017-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Celebration Of More"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2018-01-16 18:40:43"</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>"2018-03-21 16:56:40"</t>
+  </si>
+  <si>
+    <t>2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "You Make Me Feel So.."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-10-18 13:38:05"</t>
+  </si>
+  <si>
+    <t>2018-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He"s Walking Away"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2019-05-25 08:14:03"</t>
+  </si>
+  <si>
+    <t>2018-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "He"s Trouble"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2021-08-15 21:37:09"</t>
+  </si>
+  <si>
+    <t>2017-01-17</t>
+  </si>
+  <si>
+    <t>TABELA PLANOS</t>
+  </si>
+  <si>
+    <t>"2021-05-24 17:23:45"</t>
+  </si>
+  <si>
+    <t>plano_id</t>
+  </si>
+  <si>
+    <t>plano</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Words Of Her Life"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2018-12-07 22:48:52"</t>
+  </si>
+  <si>
+    <t>gratuito</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Sweetie, Let's Go Wild"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2021-03-14 06:14:26"</t>
+  </si>
+  <si>
+    <t>familiar</t>
+  </si>
+  <si>
+    <t>7,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "She Knows"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2020-04-01 03:36:00"</t>
+  </si>
+  <si>
+    <t>universitário</t>
+  </si>
+  <si>
+    <t>5,99</t>
+  </si>
+  <si>
+    <t>"2017-02-06 08:21:34"</t>
+  </si>
+  <si>
+    <t>pessoal</t>
+  </si>
+  <si>
+    <t>6,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-12-04 05:33:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-07-27 05:24:49"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Home Forever"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-12-25 01:03:57"</t>
+  </si>
+  <si>
     <t>usuario</t>
-  </si>
-  <si>
-    <t>idade</t>
-  </si>
-  <si>
-    <t>plano_id</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>"2020-01-02 07:40:33"</t>
-  </si>
-  <si>
-    <t>Thati</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Finding My Traditions"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-05-16 06:16:22"</t>
-  </si>
-  <si>
-    <t>Cintia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Without My Love"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-10-09 12:27:48"</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Baby"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-09-21 13:14:46"</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>"2020-11-13 16:55:13"</t>
-  </si>
-  <si>
-    <t>Norman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Dance With Her Own"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-12-05 18:38:30"</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Hard And Time"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-07-30 10:00:00"</t>
-  </si>
-  <si>
-    <t>Vivian</t>
-  </si>
-  <si>
-    <t>"2021-08-15 17:10:10"</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "I Ride Alone"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2021-07-10 15:20:30"</t>
-  </si>
-  <si>
-    <t>Angelina</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Honey, I'm A Lone Wolf"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2021-01-09 01:44:33"</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>"2020-07-03 19:33:28"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Rock His Everything"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-02-24 21:14:22"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-08-06 15:23:43"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Soul For Us"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-11-10 13:52:27"</t>
-  </si>
-  <si>
-    <t>TABELA usuario_planos</t>
-  </si>
-  <si>
-    <t>"2019-02-07 20:33:48"</t>
-  </si>
-  <si>
-    <t>FK - plano_id</t>
-  </si>
-  <si>
-    <t>data_assinatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "He Heard You're Bad For Me"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-01-24 00:31:17"</t>
-  </si>
-  <si>
-    <t>2019-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "He Hopes We Can't Stay"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-10-12 12:35:20"</t>
-  </si>
-  <si>
-    <t>2017-12-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  "Walking And Game"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2018-05-29 14:56:41"</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>"2018-05-09 22:30:49"</t>
-  </si>
-  <si>
-    <t>2020-05-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Troubles Of My Inner Fire"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-07-27 12:52:58"</t>
-  </si>
-  <si>
-    <t>2017-02-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Celebration Of More"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2018-01-16 18:40:43"</t>
-  </si>
-  <si>
-    <t>2017-01-06</t>
-  </si>
-  <si>
-    <t>"2018-03-21 16:56:40"</t>
-  </si>
-  <si>
-    <t>2018-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "You Make Me Feel So.."</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-10-18 13:38:05"</t>
-  </si>
-  <si>
-    <t>2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "He"s Walking Away"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2019-05-25 08:14:03"</t>
-  </si>
-  <si>
-    <t>2018-04-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "He"s Trouble"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2021-08-15 21:37:09"</t>
-  </si>
-  <si>
-    <t>2017-01-17</t>
-  </si>
-  <si>
-    <t>TABELA PLANOS</t>
-  </si>
-  <si>
-    <t>"2021-05-24 17:23:45"</t>
-  </si>
-  <si>
-    <t>plano</t>
-  </si>
-  <si>
-    <t>preco</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Words Of Her Life"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2018-12-07 22:48:52"</t>
-  </si>
-  <si>
-    <t>gratuito</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Sweetie, Let's Go Wild"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2021-03-14 06:14:26"</t>
-  </si>
-  <si>
-    <t>familiar</t>
-  </si>
-  <si>
-    <t>7,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "She Knows"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-04-01 03:36:00"</t>
-  </si>
-  <si>
-    <t>universitário</t>
-  </si>
-  <si>
-    <t>5,99</t>
-  </si>
-  <si>
-    <t>"2017-02-06 08:21:34"</t>
-  </si>
-  <si>
-    <t>pessoal</t>
-  </si>
-  <si>
-    <t>6,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-12-04 05:33:43"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-07-27 05:24:49"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Home Forever"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-12-25 01:03:57"</t>
   </si>
   <si>
     <t>valor_plano</t>
@@ -2982,18 +2982,15 @@
       <c r="E53" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="50" t="s">
         <v>99</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>101</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K53" s="12">
         <v>5.0</v>
@@ -3016,23 +3013,20 @@
         <v>65</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E54" s="51">
         <v>1.0</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" s="51">
         <v>23.0</v>
       </c>
-      <c r="H54" s="40">
-        <v>1.0</v>
-      </c>
       <c r="I54" s="10"/>
       <c r="J54" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K54" s="12">
         <v>6.0</v>
@@ -3052,22 +3046,19 @@
         <v>2.0</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E55" s="51">
         <v>2.0</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G55" s="51">
         <v>35.0</v>
-      </c>
-      <c r="H55" s="40">
-        <v>2.0</v>
       </c>
       <c r="I55" s="10"/>
       <c r="J55" s="25">
@@ -3091,22 +3082,19 @@
         <v>2.0</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="51">
         <v>3.0</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" s="51">
         <v>20.0</v>
-      </c>
-      <c r="H56" s="40">
-        <v>3.0</v>
       </c>
       <c r="I56" s="10"/>
       <c r="J56" s="25">
@@ -3130,22 +3118,19 @@
         <v>2.0</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="51">
         <v>4.0</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G57" s="51">
         <v>45.0</v>
-      </c>
-      <c r="H57" s="40">
-        <v>4.0</v>
       </c>
       <c r="I57" s="53"/>
       <c r="J57" s="25">
@@ -3173,19 +3158,16 @@
         <v>12</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E58" s="51">
         <v>5.0</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G58" s="51">
         <v>58.0</v>
-      </c>
-      <c r="H58" s="40">
-        <v>4.0</v>
       </c>
       <c r="I58" s="10"/>
       <c r="J58" s="54">
@@ -3210,22 +3192,19 @@
         <v>3.0</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E59" s="51">
         <v>6.0</v>
       </c>
       <c r="F59" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" s="51">
         <v>33.0</v>
-      </c>
-      <c r="H59" s="40">
-        <v>2.0</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="54">
@@ -3249,22 +3228,19 @@
         <v>3.0</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E60" s="51">
         <v>7.0</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G60" s="51">
         <v>26.0</v>
-      </c>
-      <c r="H60" s="40">
-        <v>3.0</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="54">
@@ -3292,19 +3268,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="51">
         <v>8.0</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G61" s="51">
         <v>19.0</v>
-      </c>
-      <c r="H61" s="40">
-        <v>3.0</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="54">
@@ -3329,22 +3302,19 @@
         <v>4.0</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" s="51">
         <v>9.0</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G62" s="51">
         <v>42.0</v>
-      </c>
-      <c r="H62" s="40">
-        <v>2.0</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="56">
@@ -3369,22 +3339,19 @@
         <v>4.0</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E63" s="51">
         <v>10.0</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G63" s="51">
         <v>46.0</v>
-      </c>
-      <c r="H63" s="40">
-        <v>2.0</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="56">
@@ -3412,7 +3379,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="30"/>
@@ -3441,10 +3408,10 @@
         <v>5.0</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="48"/>
@@ -3476,7 +3443,7 @@
         <v>93</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="48"/>
@@ -3505,13 +3472,13 @@
         <v>5.0</v>
       </c>
       <c r="B67" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="41" t="s">
         <v>134</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>136</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
@@ -3534,16 +3501,16 @@
         <v>69</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E68" s="49" t="s">
         <v>74</v>
       </c>
       <c r="F68" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
@@ -3561,10 +3528,10 @@
         <v>6.0</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E69" s="51">
         <v>1.0</v>
@@ -3573,7 +3540,7 @@
         <v>1.0</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
@@ -3592,10 +3559,10 @@
         <v>6.0</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="51">
@@ -3605,7 +3572,7 @@
         <v>2.0</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
@@ -3624,10 +3591,10 @@
         <v>6.0</v>
       </c>
       <c r="B71" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E71" s="51">
         <v>3.0</v>
@@ -3636,7 +3603,7 @@
         <v>3.0</v>
       </c>
       <c r="G71" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L71" s="26"/>
       <c r="M71" s="26"/>
@@ -3658,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E72" s="51">
         <v>4.0</v>
@@ -3667,7 +3634,7 @@
         <v>4.0</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -3684,10 +3651,10 @@
         <v>7.0</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E73" s="51">
         <v>5.0</v>
@@ -3696,7 +3663,7 @@
         <v>4.0</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -3713,10 +3680,10 @@
         <v>7.0</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E74" s="51">
         <v>6.0</v>
@@ -3725,7 +3692,7 @@
         <v>2.0</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -3748,7 +3715,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E75" s="51">
         <v>7.0</v>
@@ -3757,7 +3724,7 @@
         <v>3.0</v>
       </c>
       <c r="G75" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -3777,10 +3744,10 @@
         <v>8.0</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E76" s="51">
         <v>8.0</v>
@@ -3789,7 +3756,7 @@
         <v>3.0</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -3809,10 +3776,10 @@
         <v>8.0</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E77" s="51">
         <v>9.0</v>
@@ -3821,7 +3788,7 @@
         <v>2.0</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -3842,10 +3809,10 @@
         <v>8.0</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E78" s="51">
         <v>10.0</v>
@@ -3854,11 +3821,11 @@
         <v>2.0</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H78" s="30"/>
       <c r="I78" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="10"/>
@@ -3879,20 +3846,20 @@
         <v>22</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="7" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="10"/>
@@ -3910,16 +3877,16 @@
         <v>9.0</v>
       </c>
       <c r="B80" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="51" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>173</v>
       </c>
       <c r="I80" s="16">
         <v>1.0</v>
       </c>
       <c r="J80" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K80" s="59">
         <v>0.0</v>
@@ -3940,19 +3907,19 @@
         <v>9.0</v>
       </c>
       <c r="B81" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>176</v>
       </c>
       <c r="I81" s="16">
         <v>2.0</v>
       </c>
       <c r="J81" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="K81" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="K81" s="59" t="s">
-        <v>178</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="10"/>
@@ -3970,19 +3937,19 @@
         <v>9.0</v>
       </c>
       <c r="B82" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>179</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>180</v>
       </c>
       <c r="I82" s="16">
         <v>3.0</v>
       </c>
       <c r="J82" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="K82" s="59" t="s">
         <v>181</v>
-      </c>
-      <c r="K82" s="59" t="s">
-        <v>182</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="10"/>
@@ -4003,16 +3970,16 @@
         <v>26</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I83" s="16">
         <v>4.0</v>
       </c>
       <c r="J83" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="K83" s="59" t="s">
         <v>184</v>
-      </c>
-      <c r="K83" s="59" t="s">
-        <v>185</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="10"/>
@@ -4030,10 +3997,10 @@
         <v>10.0</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="10"/>
@@ -4051,10 +4018,10 @@
         <v>10.0</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="10"/>
@@ -4072,10 +4039,10 @@
         <v>10.0</v>
       </c>
       <c r="B86" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="51" t="s">
         <v>188</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>189</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="10"/>
@@ -7163,10 +7130,10 @@
         <v>98</v>
       </c>
       <c r="B1" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>100</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>81</v>
@@ -7175,10 +7142,10 @@
         <v>82</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H1" s="60" t="s">
         <v>190</v>
@@ -7189,7 +7156,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="60">
         <v>23.0</v>
@@ -7201,10 +7168,10 @@
         <v>192</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H2" s="60">
         <v>0.0</v>
@@ -7215,7 +7182,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="60">
         <v>35.0</v>
@@ -7227,13 +7194,13 @@
         <v>194</v>
       </c>
       <c r="F3" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>177</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4">
@@ -7241,7 +7208,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="60">
         <v>20.0</v>
@@ -7253,13 +7220,13 @@
         <v>196</v>
       </c>
       <c r="F4" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -7267,7 +7234,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" s="60">
         <v>45.0</v>
@@ -7279,13 +7246,13 @@
         <v>198</v>
       </c>
       <c r="F5" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>184</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6">
@@ -7293,7 +7260,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="60">
         <v>58.0</v>
@@ -7305,13 +7272,13 @@
         <v>200</v>
       </c>
       <c r="F6" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="60" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -7319,7 +7286,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="60">
         <v>33.0</v>
@@ -7331,13 +7298,13 @@
         <v>202</v>
       </c>
       <c r="F7" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>177</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8">
@@ -7345,7 +7312,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="60">
         <v>26.0</v>
@@ -7357,13 +7324,13 @@
         <v>204</v>
       </c>
       <c r="F8" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9">
@@ -7371,7 +7338,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="60">
         <v>19.0</v>
@@ -7383,13 +7350,13 @@
         <v>206</v>
       </c>
       <c r="F9" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="60" t="s">
         <v>181</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -7397,7 +7364,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="60">
         <v>42.0</v>
@@ -7409,13 +7376,13 @@
         <v>208</v>
       </c>
       <c r="F10" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="60" t="s">
         <v>177</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -7423,7 +7390,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="60">
         <v>46.0</v>
@@ -7435,13 +7402,13 @@
         <v>210</v>
       </c>
       <c r="F11" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="60" t="s">
         <v>177</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13">

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="208">
   <si>
     <t>TABELA cancoes</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Tyler Isle</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Walking And Man"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-05-02 05:30:35"</t>
   </si>
   <si>
@@ -287,24 +284,15 @@
     <t>Fog</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Young And Father"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-03-06 11:22:33"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Diamond Power"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-08-05 08:05:17"</t>
   </si>
   <si>
     <t>TABELA usuario</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Let's Be Silly"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-09-14 16:32:22"</t>
   </si>
   <si>
@@ -323,27 +311,18 @@
     <t>Thati</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Finding My Traditions"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-05-16 06:16:22"</t>
   </si>
   <si>
     <t>Cintia</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Without My Love"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-10-09 12:27:48"</t>
   </si>
   <si>
     <t>Bill</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Baby"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-09-21 13:14:46"</t>
   </si>
   <si>
@@ -356,18 +335,12 @@
     <t>Norman</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Dance With Her Own"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-12-05 18:38:30"</t>
   </si>
   <si>
     <t>Patrick</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Hard And Time"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-07-30 10:00:00"</t>
   </si>
   <si>
@@ -380,18 +353,12 @@
     <t>Carol</t>
   </si>
   <si>
-    <t xml:space="preserve"> "I Ride Alone"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2021-07-10 15:20:30"</t>
   </si>
   <si>
     <t>Angelina</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Honey, I'm A Lone Wolf"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2021-01-09 01:44:33"</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>"2020-07-03 19:33:28"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Rock His Everything"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2017-02-24 21:14:22"</t>
   </si>
   <si>
     <t xml:space="preserve"> "2020-08-06 15:23:43"</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Soul For Us"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-11-10 13:52:27"</t>
   </si>
   <si>
@@ -428,27 +389,18 @@
     <t>data_assinatura</t>
   </si>
   <si>
-    <t xml:space="preserve"> "He Heard You're Bad For Me"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2017-01-24 00:31:17"</t>
   </si>
   <si>
     <t>2019-10-20</t>
   </si>
   <si>
-    <t xml:space="preserve"> "He Hopes We Can't Stay"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2017-10-12 12:35:20"</t>
   </si>
   <si>
     <t>2017-12-30</t>
   </si>
   <si>
-    <t xml:space="preserve">  "Walking And Game"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2018-05-29 14:56:41"</t>
   </si>
   <si>
@@ -461,18 +413,12 @@
     <t>2020-05-13</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Troubles Of My Inner Fire"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-07-27 12:52:58"</t>
   </si>
   <si>
     <t>2017-02-17</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Celebration Of More"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2018-01-16 18:40:43"</t>
   </si>
   <si>
@@ -485,27 +431,18 @@
     <t>2018-01-05</t>
   </si>
   <si>
-    <t xml:space="preserve"> "You Make Me Feel So.."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2020-10-18 13:38:05"</t>
   </si>
   <si>
     <t>2018-02-14</t>
   </si>
   <si>
-    <t xml:space="preserve"> "He"s Walking Away"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2019-05-25 08:14:03"</t>
   </si>
   <si>
     <t>2018-04-29</t>
   </si>
   <si>
-    <t xml:space="preserve"> "He"s Trouble"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2021-08-15 21:37:09"</t>
   </si>
   <si>
@@ -527,88 +464,76 @@
     <t>preco</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Words Of Her Life"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2018-12-07 22:48:52"</t>
   </si>
   <si>
     <t>gratuito</t>
   </si>
   <si>
-    <t xml:space="preserve"> "Sweetie, Let's Go Wild"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "2021-03-14 06:14:26"</t>
   </si>
   <si>
     <t>familiar</t>
   </si>
   <si>
+    <t xml:space="preserve"> "2020-04-01 03:36:00"</t>
+  </si>
+  <si>
+    <t>universitário</t>
+  </si>
+  <si>
+    <t>"2017-02-06 08:21:34"</t>
+  </si>
+  <si>
+    <t>pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-12-04 05:33:43"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-07-27 05:24:49"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "2017-12-25 01:03:57"</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>valor_plano</t>
+  </si>
+  <si>
+    <t>Honey"; "Walking And Man"; "Young And Father"; "Diamond Power"; "Let's Be Silly"</t>
+  </si>
+  <si>
+    <t>2020-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"; "2020-08-05 08:05:17"; "2020-09-14 16:32:22"</t>
+  </si>
+  <si>
+    <t>I Heard I Want To Bo Alone"; "Finding My Traditions"; "Without My Love"; "Baby"</t>
+  </si>
+  <si>
+    <t>2020-01-02 07:40:33"; "2020-05-16 06:16:22"; "2020-10-09 12:27:48"; "2020-09-21 13:14:46"</t>
+  </si>
+  <si>
     <t>7,99</t>
   </si>
   <si>
-    <t xml:space="preserve"> "She Knows"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2020-04-01 03:36:00"</t>
-  </si>
-  <si>
-    <t>universitário</t>
+    <t>Magic Circus"; "Dance With Her Own"; "Hard And Time"</t>
+  </si>
+  <si>
+    <t>2020-11-13 16:55:13"; "2020-12-05 18:38:30"; "2020-07-30 10:00:00"</t>
   </si>
   <si>
     <t>5,99</t>
   </si>
   <si>
-    <t>"2017-02-06 08:21:34"</t>
-  </si>
-  <si>
-    <t>pessoal</t>
+    <t>Reflections Of Magic"; "I Ride Alone"; "Honey, I'm A Lone Wolf"</t>
+  </si>
+  <si>
+    <t>2021-08-15 17:10:10"; "2021-07-10 15:20:30"; "2021-01-09 01:44:33"</t>
   </si>
   <si>
     <t>6,99</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-12-04 05:33:43"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-07-27 05:24:49"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Home Forever"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "2017-12-25 01:03:57"</t>
-  </si>
-  <si>
-    <t>usuario</t>
-  </si>
-  <si>
-    <t>valor_plano</t>
-  </si>
-  <si>
-    <t>Honey"; "Walking And Man"; "Young And Father"; "Diamond Power"; "Let's Be Silly"</t>
-  </si>
-  <si>
-    <t>2020-02-28 10:45:55"; "2020-05-02 05:30:35"; "2020-03-06 11:22:33"; "2020-08-05 08:05:17"; "2020-09-14 16:32:22"</t>
-  </si>
-  <si>
-    <t>I Heard I Want To Bo Alone"; "Finding My Traditions"; "Without My Love"; "Baby"</t>
-  </si>
-  <si>
-    <t>2020-01-02 07:40:33"; "2020-05-16 06:16:22"; "2020-10-09 12:27:48"; "2020-09-21 13:14:46"</t>
-  </si>
-  <si>
-    <t>Magic Circus"; "Dance With Her Own"; "Hard And Time"</t>
-  </si>
-  <si>
-    <t>2020-11-13 16:55:13"; "2020-12-05 18:38:30"; "2020-07-30 10:00:00"</t>
-  </si>
-  <si>
-    <t>Reflections Of Magic"; "I Ride Alone"; "Honey, I'm A Lone Wolf"</t>
-  </si>
-  <si>
-    <t>2021-08-15 17:10:10"; "2021-07-10 15:20:30"; "2021-01-09 01:44:33"</t>
   </si>
   <si>
     <t>Honey, So Do I"; "Rock His Everything"; "Diamond Power"; "Soul For Us"</t>
@@ -742,7 +667,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +690,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -842,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -980,6 +911,15 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -990,11 +930,23 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1304,9 +1256,9 @@
     <col customWidth="1" min="3" max="3" width="21.29"/>
     <col customWidth="1" min="4" max="4" width="28.43"/>
     <col customWidth="1" min="5" max="5" width="21.14"/>
-    <col customWidth="1" min="6" max="6" width="15.43"/>
+    <col customWidth="1" min="6" max="6" width="13.29"/>
     <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
+    <col customWidth="1" min="8" max="8" width="13.29"/>
     <col customWidth="1" min="9" max="9" width="20.86"/>
     <col customWidth="1" min="10" max="10" width="26.71"/>
     <col customWidth="1" min="11" max="11" width="17.71"/>
@@ -2851,8 +2803,8 @@
       <c r="A49" s="51">
         <v>1.0</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>67</v>
+      <c r="B49" s="16">
+        <v>36.0</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>85</v>
@@ -2882,15 +2834,15 @@
       <c r="A50" s="51">
         <v>1.0</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="16">
+        <v>25.0</v>
+      </c>
+      <c r="C50" s="51" t="s">
         <v>87</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>88</v>
       </c>
       <c r="G50" s="30"/>
       <c r="J50" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K50" s="12">
         <v>4.0</v>
@@ -2900,7 +2852,7 @@
         <v>6.0</v>
       </c>
       <c r="N50" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="4"/>
@@ -2913,16 +2865,16 @@
       <c r="A51" s="51">
         <v>1.0</v>
       </c>
-      <c r="B51" s="51" t="s">
-        <v>91</v>
+      <c r="B51" s="16">
+        <v>23.0</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E51" s="26"/>
       <c r="G51" s="30"/>
       <c r="J51" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K51" s="12">
         <v>1.0</v>
@@ -2940,14 +2892,14 @@
       <c r="A52" s="51">
         <v>1.0</v>
       </c>
-      <c r="B52" s="51" t="s">
-        <v>93</v>
+      <c r="B52" s="16">
+        <v>14.0</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>92</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
@@ -2972,25 +2924,25 @@
       <c r="A53" s="51">
         <v>1.0</v>
       </c>
-      <c r="B53" s="51" t="s">
-        <v>96</v>
+      <c r="B53" s="16">
+        <v>15.0</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D53" s="30"/>
-      <c r="E53" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="49" t="s">
+      <c r="E53" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>99</v>
+      <c r="G53" s="54" t="s">
+        <v>95</v>
       </c>
       <c r="I53" s="10"/>
       <c r="J53" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K53" s="12">
         <v>5.0</v>
@@ -3009,24 +2961,24 @@
       <c r="A54" s="51">
         <v>2.0</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>65</v>
+      <c r="B54" s="16">
+        <v>34.0</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E54" s="51">
         <v>1.0</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G54" s="51">
         <v>23.0</v>
       </c>
       <c r="I54" s="10"/>
       <c r="J54" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K54" s="12">
         <v>6.0</v>
@@ -3045,17 +2997,17 @@
       <c r="A55" s="51">
         <v>2.0</v>
       </c>
-      <c r="B55" s="51" t="s">
-        <v>103</v>
+      <c r="B55" s="16">
+        <v>24.0</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E55" s="51">
         <v>2.0</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G55" s="51">
         <v>35.0</v>
@@ -3081,17 +3033,17 @@
       <c r="A56" s="51">
         <v>2.0</v>
       </c>
-      <c r="B56" s="51" t="s">
-        <v>106</v>
+      <c r="B56" s="16">
+        <v>21.0</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E56" s="51">
         <v>3.0</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G56" s="51">
         <v>20.0</v>
@@ -3117,22 +3069,22 @@
       <c r="A57" s="51">
         <v>2.0</v>
       </c>
-      <c r="B57" s="51" t="s">
-        <v>109</v>
+      <c r="B57" s="16">
+        <v>39.0</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E57" s="51">
         <v>4.0</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G57" s="51">
         <v>45.0</v>
       </c>
-      <c r="I57" s="53"/>
+      <c r="I57" s="56"/>
       <c r="J57" s="25">
         <v>6.0</v>
       </c>
@@ -3154,26 +3106,26 @@
       <c r="A58" s="51">
         <v>3.0</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>12</v>
+      <c r="B58" s="16">
+        <v>6.0</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E58" s="51">
         <v>5.0</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G58" s="51">
         <v>58.0</v>
       </c>
       <c r="I58" s="10"/>
-      <c r="J58" s="54">
+      <c r="J58" s="57">
         <v>7.0</v>
       </c>
-      <c r="K58" s="55">
+      <c r="K58" s="58">
         <v>4.0</v>
       </c>
       <c r="L58" s="26"/>
@@ -3191,26 +3143,26 @@
       <c r="A59" s="51">
         <v>3.0</v>
       </c>
-      <c r="B59" s="51" t="s">
-        <v>114</v>
+      <c r="B59" s="16">
+        <v>3.0</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E59" s="51">
         <v>6.0</v>
       </c>
       <c r="F59" s="51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G59" s="51">
         <v>33.0</v>
       </c>
       <c r="I59" s="10"/>
-      <c r="J59" s="54">
+      <c r="J59" s="57">
         <v>7.0</v>
       </c>
-      <c r="K59" s="55">
+      <c r="K59" s="58">
         <v>5.0</v>
       </c>
       <c r="L59" s="26"/>
@@ -3227,26 +3179,26 @@
       <c r="A60" s="51">
         <v>3.0</v>
       </c>
-      <c r="B60" s="51" t="s">
-        <v>117</v>
+      <c r="B60" s="16">
+        <v>26.0</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E60" s="51">
         <v>7.0</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G60" s="51">
         <v>26.0</v>
       </c>
       <c r="I60" s="10"/>
-      <c r="J60" s="54">
+      <c r="J60" s="57">
         <v>8.0</v>
       </c>
-      <c r="K60" s="55">
+      <c r="K60" s="58">
         <v>1.0</v>
       </c>
       <c r="L60" s="26"/>
@@ -3264,26 +3216,26 @@
       <c r="A61" s="51">
         <v>4.0</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>8</v>
+      <c r="B61" s="16">
+        <v>2.0</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E61" s="51">
         <v>8.0</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G61" s="51">
         <v>19.0</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="54">
+      <c r="J61" s="57">
         <v>8.0</v>
       </c>
-      <c r="K61" s="55">
+      <c r="K61" s="58">
         <v>5.0</v>
       </c>
       <c r="L61" s="26"/>
@@ -3301,23 +3253,23 @@
       <c r="A62" s="51">
         <v>4.0</v>
       </c>
-      <c r="B62" s="51" t="s">
-        <v>122</v>
+      <c r="B62" s="16">
+        <v>35.0</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E62" s="51">
         <v>9.0</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G62" s="51">
         <v>42.0</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="56">
+      <c r="J62" s="59">
         <v>9.0</v>
       </c>
       <c r="K62" s="16">
@@ -3338,23 +3290,23 @@
       <c r="A63" s="51">
         <v>4.0</v>
       </c>
-      <c r="B63" s="51" t="s">
-        <v>125</v>
+      <c r="B63" s="16">
+        <v>27.0</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E63" s="51">
         <v>10.0</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G63" s="51">
         <v>46.0</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="56">
+      <c r="J63" s="59">
         <v>9.0</v>
       </c>
       <c r="K63" s="16">
@@ -3375,17 +3327,17 @@
       <c r="A64" s="51">
         <v>5.0</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>13</v>
+      <c r="B64" s="16">
+        <v>7.0</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="30"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="56">
+      <c r="J64" s="59">
         <v>9.0</v>
       </c>
       <c r="K64" s="16">
@@ -3407,17 +3359,17 @@
       <c r="A65" s="51">
         <v>5.0</v>
       </c>
-      <c r="B65" s="51" t="s">
-        <v>129</v>
+      <c r="B65" s="16">
+        <v>12.0</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="48"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="56">
+      <c r="J65" s="59">
         <v>10.0</v>
       </c>
       <c r="K65" s="16">
@@ -3439,17 +3391,17 @@
       <c r="A66" s="51">
         <v>5.0</v>
       </c>
-      <c r="B66" s="51" t="s">
-        <v>93</v>
+      <c r="B66" s="16">
+        <v>14.0</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="48"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="56">
+      <c r="J66" s="59">
         <v>10.0</v>
       </c>
       <c r="K66" s="16">
@@ -3471,14 +3423,14 @@
       <c r="A67" s="51">
         <v>5.0</v>
       </c>
-      <c r="B67" s="51" t="s">
-        <v>132</v>
+      <c r="B67" s="16">
+        <v>1.0</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="E67" s="60" t="s">
+        <v>121</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
@@ -3497,26 +3449,26 @@
       <c r="A68" s="51">
         <v>6.0</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>69</v>
+      <c r="B68" s="16">
+        <v>38.0</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" s="50" t="s">
-        <v>137</v>
+      <c r="F68" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>124</v>
       </c>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
-      <c r="P68" s="57"/>
+      <c r="P68" s="61"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -3527,11 +3479,11 @@
       <c r="A69" s="51">
         <v>6.0</v>
       </c>
-      <c r="B69" s="51" t="s">
-        <v>138</v>
+      <c r="B69" s="16">
+        <v>29.0</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E69" s="51">
         <v>1.0</v>
@@ -3540,7 +3492,7 @@
         <v>1.0</v>
       </c>
       <c r="G69" s="51" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
@@ -3558,11 +3510,11 @@
       <c r="A70" s="51">
         <v>6.0</v>
       </c>
-      <c r="B70" s="51" t="s">
-        <v>141</v>
+      <c r="B70" s="16">
+        <v>30.0</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D70" s="26"/>
       <c r="E70" s="51">
@@ -3572,7 +3524,7 @@
         <v>2.0</v>
       </c>
       <c r="G70" s="51" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L70" s="26"/>
       <c r="M70" s="26"/>
@@ -3590,11 +3542,11 @@
       <c r="A71" s="51">
         <v>6.0</v>
       </c>
-      <c r="B71" s="51" t="s">
-        <v>144</v>
+      <c r="B71" s="16">
+        <v>22.0</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E71" s="51">
         <v>3.0</v>
@@ -3603,7 +3555,7 @@
         <v>3.0</v>
       </c>
       <c r="G71" s="51" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L71" s="26"/>
       <c r="M71" s="26"/>
@@ -3621,11 +3573,11 @@
       <c r="A72" s="51">
         <v>7.0</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>11</v>
+      <c r="B72" s="16">
+        <v>5.0</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E72" s="51">
         <v>4.0</v>
@@ -3634,7 +3586,7 @@
         <v>4.0</v>
       </c>
       <c r="G72" s="51" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -3650,11 +3602,11 @@
       <c r="A73" s="51">
         <v>7.0</v>
       </c>
-      <c r="B73" s="51" t="s">
-        <v>149</v>
+      <c r="B73" s="16">
+        <v>4.0</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E73" s="51">
         <v>5.0</v>
@@ -3663,7 +3615,7 @@
         <v>4.0</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -3679,11 +3631,11 @@
       <c r="A74" s="51">
         <v>7.0</v>
       </c>
-      <c r="B74" s="51" t="s">
-        <v>152</v>
+      <c r="B74" s="16">
+        <v>11.0</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E74" s="51">
         <v>6.0</v>
@@ -3692,7 +3644,7 @@
         <v>2.0</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -3711,11 +3663,11 @@
       <c r="A75" s="51">
         <v>8.0</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>70</v>
+      <c r="B75" s="16">
+        <v>39.0</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E75" s="51">
         <v>7.0</v>
@@ -3724,7 +3676,7 @@
         <v>3.0</v>
       </c>
       <c r="G75" s="51" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -3743,11 +3695,11 @@
       <c r="A76" s="51">
         <v>8.0</v>
       </c>
-      <c r="B76" s="51" t="s">
-        <v>157</v>
+      <c r="B76" s="16">
+        <v>40.0</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E76" s="51">
         <v>8.0</v>
@@ -3756,7 +3708,7 @@
         <v>3.0</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -3775,11 +3727,11 @@
       <c r="A77" s="51">
         <v>8.0</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>160</v>
+      <c r="B77" s="16">
+        <v>32.0</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E77" s="51">
         <v>9.0</v>
@@ -3788,7 +3740,7 @@
         <v>2.0</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -3808,11 +3760,11 @@
       <c r="A78" s="51">
         <v>8.0</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>163</v>
+      <c r="B78" s="16">
+        <v>33.0</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E78" s="51">
         <v>10.0</v>
@@ -3821,11 +3773,11 @@
         <v>2.0</v>
       </c>
       <c r="G78" s="51" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="H78" s="30"/>
-      <c r="I78" s="36" t="s">
-        <v>166</v>
+      <c r="I78" s="62" t="s">
+        <v>145</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="10"/>
@@ -3842,24 +3794,24 @@
       <c r="A79" s="51">
         <v>9.0</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>22</v>
+      <c r="B79" s="16">
+        <v>16.0</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>170</v>
+      <c r="I79" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="J79" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="K79" s="63" t="s">
+        <v>149</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="10"/>
@@ -3876,19 +3828,19 @@
       <c r="A80" s="51">
         <v>9.0</v>
       </c>
-      <c r="B80" s="51" t="s">
-        <v>171</v>
+      <c r="B80" s="16">
+        <v>17.0</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="I80" s="16">
         <v>1.0</v>
       </c>
-      <c r="J80" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K80" s="59">
+      <c r="J80" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="K80" s="65">
         <v>0.0</v>
       </c>
       <c r="M80" s="4"/>
@@ -3906,20 +3858,20 @@
       <c r="A81" s="51">
         <v>9.0</v>
       </c>
-      <c r="B81" s="51" t="s">
-        <v>174</v>
+      <c r="B81" s="16">
+        <v>8.0</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="I81" s="16">
         <v>2.0</v>
       </c>
-      <c r="J81" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="K81" s="59" t="s">
-        <v>177</v>
+      <c r="J81" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="K81" s="66">
+        <v>7.99</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="10"/>
@@ -3936,20 +3888,20 @@
       <c r="A82" s="51">
         <v>9.0</v>
       </c>
-      <c r="B82" s="51" t="s">
-        <v>178</v>
+      <c r="B82" s="16">
+        <v>9.0</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="I82" s="16">
         <v>3.0</v>
       </c>
-      <c r="J82" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="K82" s="59" t="s">
-        <v>181</v>
+      <c r="J82" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="K82" s="66">
+        <v>5.99</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="10"/>
@@ -3966,20 +3918,20 @@
       <c r="A83" s="51">
         <v>10.0</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>26</v>
+      <c r="B83" s="16">
+        <v>20.0</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="I83" s="16">
         <v>4.0</v>
       </c>
-      <c r="J83" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="K83" s="59" t="s">
-        <v>184</v>
+      <c r="J83" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="K83" s="66">
+        <v>6.99</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="10"/>
@@ -3996,11 +3948,11 @@
       <c r="A84" s="51">
         <v>10.0</v>
       </c>
-      <c r="B84" s="51" t="s">
-        <v>106</v>
+      <c r="B84" s="16">
+        <v>21.0</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="10"/>
@@ -4017,11 +3969,11 @@
       <c r="A85" s="51">
         <v>10.0</v>
       </c>
-      <c r="B85" s="51" t="s">
-        <v>129</v>
+      <c r="B85" s="16">
+        <v>12.0</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="M85" s="4"/>
       <c r="N85" s="10"/>
@@ -4038,11 +3990,11 @@
       <c r="A86" s="51">
         <v>10.0</v>
       </c>
-      <c r="B86" s="51" t="s">
-        <v>187</v>
+      <c r="B86" s="16">
+        <v>13.0</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="10"/>
@@ -7092,13 +7044,13 @@
   <mergeCells count="10">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A47:C47"/>
     <mergeCell ref="E52:G52"/>
     <mergeCell ref="E67:G67"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="H22:K22"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="I78:K78"/>
   </mergeCells>
   <printOptions/>
@@ -7126,508 +7078,508 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="67">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C2" s="67">
+        <v>23.0</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="67">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="67">
+        <v>35.0</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="67">
+        <v>20.0</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="67">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="67">
+        <v>45.0</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="67">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="67">
+        <v>58.0</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="67">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="67">
+        <v>33.0</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="67">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="67">
+        <v>26.0</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="67">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="67">
+        <v>19.0</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="67">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="67">
+        <v>42.0</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="67">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="67">
+        <v>46.0</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="67">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="60" t="s">
+      <c r="F14" s="67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="68" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="60">
-        <v>23.0</v>
-      </c>
-      <c r="D2" s="61" t="s">
+      <c r="E15" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="F15" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="60">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="60">
-        <v>35.0</v>
-      </c>
-      <c r="D3" s="61" t="s">
+      <c r="E16" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="F16" s="67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="67">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="60">
-        <v>20.0</v>
-      </c>
-      <c r="D4" s="61" t="s">
+      <c r="E17" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="F17" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="67">
+        <v>5.0</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="60">
-        <v>45.0</v>
-      </c>
-      <c r="D5" s="61" t="s">
+      <c r="E18" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="F18" s="67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="67">
+        <v>6.0</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="60">
-        <v>58.0</v>
-      </c>
-      <c r="D6" s="61" t="s">
+      <c r="E19" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="F19" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="67">
+        <v>7.0</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="60">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="60">
-        <v>33.0</v>
-      </c>
-      <c r="D7" s="61" t="s">
+      <c r="E20" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="F20" s="67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="67">
+        <v>8.0</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="60">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="60">
-        <v>26.0</v>
-      </c>
-      <c r="D8" s="61" t="s">
+      <c r="E21" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="F21" s="67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="67">
+        <v>9.0</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="60">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="60">
-        <v>19.0</v>
-      </c>
-      <c r="D9" s="61" t="s">
+      <c r="E22" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="F22" s="67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="67">
+        <v>10.0</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="60">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="60">
-        <v>42.0</v>
-      </c>
-      <c r="D10" s="61" t="s">
+      <c r="E23" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="60">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="60">
-        <v>46.0</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="60">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="F15" s="60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="60">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="60">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="60">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="60">
-        <v>6.0</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="60">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="60">
-        <v>8.0</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="60">
-        <v>9.0</v>
-      </c>
-      <c r="B22" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="60">
-        <v>10.0</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="F23" s="60" t="s">
+      <c r="F23" s="67" t="s">
         <v>60</v>
       </c>
     </row>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -877,14 +877,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -898,7 +905,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -911,7 +917,7 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -931,10 +937,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2579,15 +2581,15 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="40"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="40"/>
       <c r="D43" s="10"/>
       <c r="E43" s="4"/>
-      <c r="J43" s="36" t="s">
+      <c r="J43" s="42" t="s">
         <v>72</v>
       </c>
       <c r="L43" s="26"/>
-      <c r="M43" s="41" t="s">
+      <c r="M43" s="43" t="s">
         <v>73</v>
       </c>
       <c r="N43" s="3"/>
@@ -2602,17 +2604,17 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="G44" s="42"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="46" t="s">
         <v>32</v>
       </c>
       <c r="L44" s="30"/>
@@ -2644,23 +2646,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="42"/>
+      <c r="G45" s="44"/>
       <c r="J45" s="25" t="s">
         <v>76</v>
       </c>
       <c r="K45" s="12">
         <v>1.0</v>
       </c>
-      <c r="L45" s="44"/>
+      <c r="L45" s="47" t="str">
+        <f>"("&amp;J45&amp;" "&amp;K45&amp;")"&amp;","</f>
+        <v>(1 1),</v>
+      </c>
       <c r="M45" s="16">
         <v>1.0</v>
       </c>
-      <c r="N45" s="45" t="s">
+      <c r="N45" s="48" t="s">
         <v>77</v>
       </c>
       <c r="Q45" s="10"/>
@@ -2685,7 +2690,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2698,11 +2703,11 @@
       <c r="K46" s="12">
         <v>2.0</v>
       </c>
-      <c r="L46" s="44"/>
+      <c r="L46" s="47"/>
       <c r="M46" s="12">
         <v>2.0</v>
       </c>
-      <c r="N46" s="46" t="s">
+      <c r="N46" s="49" t="s">
         <v>78</v>
       </c>
       <c r="Q46" s="10"/>
@@ -2726,13 +2731,13 @@
       <c r="AI46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="50" t="s">
         <v>79</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="4"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="48"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="10"/>
       <c r="J47" s="25" t="s">
         <v>76</v>
@@ -2740,11 +2745,11 @@
       <c r="K47" s="12">
         <v>3.0</v>
       </c>
-      <c r="L47" s="26"/>
+      <c r="L47" s="47"/>
       <c r="M47" s="12">
         <v>3.0</v>
       </c>
-      <c r="N47" s="46" t="s">
+      <c r="N47" s="49" t="s">
         <v>80</v>
       </c>
       <c r="Q47" s="10"/>
@@ -2768,13 +2773,13 @@
       <c r="AI47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="52" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="10"/>
@@ -2785,11 +2790,11 @@
       <c r="K48" s="12">
         <v>1.0</v>
       </c>
-      <c r="L48" s="26"/>
+      <c r="L48" s="47"/>
       <c r="M48" s="12">
         <v>4.0</v>
       </c>
-      <c r="N48" s="45" t="s">
+      <c r="N48" s="48" t="s">
         <v>84</v>
       </c>
       <c r="Q48" s="10"/>
@@ -2800,7 +2805,7 @@
       <c r="V48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="51">
+      <c r="A49" s="53">
         <v>1.0</v>
       </c>
       <c r="B49" s="16">
@@ -2816,7 +2821,7 @@
       <c r="K49" s="12">
         <v>3.0</v>
       </c>
-      <c r="L49" s="26"/>
+      <c r="L49" s="47"/>
       <c r="M49" s="12">
         <v>5.0</v>
       </c>
@@ -2831,13 +2836,13 @@
       <c r="V49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="51">
+      <c r="A50" s="53">
         <v>1.0</v>
       </c>
       <c r="B50" s="16">
         <v>25.0</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="53" t="s">
         <v>87</v>
       </c>
       <c r="G50" s="30"/>
@@ -2847,11 +2852,11 @@
       <c r="K50" s="12">
         <v>4.0</v>
       </c>
-      <c r="L50" s="26"/>
+      <c r="L50" s="47"/>
       <c r="M50" s="12">
         <v>6.0</v>
       </c>
-      <c r="N50" s="52" t="s">
+      <c r="N50" s="54" t="s">
         <v>89</v>
       </c>
       <c r="Q50" s="10"/>
@@ -2862,13 +2867,13 @@
       <c r="V50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="51">
+      <c r="A51" s="53">
         <v>1.0</v>
       </c>
       <c r="B51" s="16">
         <v>23.0</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="53" t="s">
         <v>90</v>
       </c>
       <c r="E51" s="26"/>
@@ -2879,7 +2884,7 @@
       <c r="K51" s="12">
         <v>1.0</v>
       </c>
-      <c r="L51" s="26"/>
+      <c r="L51" s="47"/>
       <c r="M51" s="26"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="4"/>
@@ -2889,16 +2894,16 @@
       <c r="V51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="51">
+      <c r="A52" s="53">
         <v>1.0</v>
       </c>
       <c r="B52" s="16">
         <v>14.0</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="55" t="s">
         <v>92</v>
       </c>
       <c r="F52" s="2"/>
@@ -2910,7 +2915,7 @@
       <c r="K52" s="12">
         <v>2.0</v>
       </c>
-      <c r="L52" s="26"/>
+      <c r="L52" s="47"/>
       <c r="M52" s="26"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
@@ -2921,23 +2926,23 @@
       <c r="V52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="51">
+      <c r="A53" s="53">
         <v>1.0</v>
       </c>
       <c r="B53" s="16">
         <v>15.0</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="53" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="30"/>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="55" t="s">
+      <c r="F53" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="56" t="s">
         <v>95</v>
       </c>
       <c r="I53" s="10"/>
@@ -2947,7 +2952,7 @@
       <c r="K53" s="12">
         <v>5.0</v>
       </c>
-      <c r="L53" s="26"/>
+      <c r="L53" s="47"/>
       <c r="M53" s="26"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
@@ -2958,7 +2963,7 @@
       <c r="V53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="51">
+      <c r="A54" s="53">
         <v>2.0</v>
       </c>
       <c r="B54" s="16">
@@ -2967,13 +2972,13 @@
       <c r="C54" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="53">
         <v>1.0</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G54" s="51">
+      <c r="G54" s="53">
         <v>23.0</v>
       </c>
       <c r="I54" s="10"/>
@@ -2983,7 +2988,7 @@
       <c r="K54" s="12">
         <v>6.0</v>
       </c>
-      <c r="L54" s="26"/>
+      <c r="L54" s="47"/>
       <c r="M54" s="26"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -2994,22 +2999,22 @@
       <c r="V54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="51">
+      <c r="A55" s="53">
         <v>2.0</v>
       </c>
       <c r="B55" s="16">
         <v>24.0</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="51">
+      <c r="E55" s="53">
         <v>2.0</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="53">
         <v>35.0</v>
       </c>
       <c r="I55" s="10"/>
@@ -3019,7 +3024,7 @@
       <c r="K55" s="12">
         <v>6.0</v>
       </c>
-      <c r="L55" s="26"/>
+      <c r="L55" s="47"/>
       <c r="M55" s="26"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
@@ -3030,22 +3035,22 @@
       <c r="V55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="51">
+      <c r="A56" s="53">
         <v>2.0</v>
       </c>
       <c r="B56" s="16">
         <v>21.0</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="51">
+      <c r="E56" s="53">
         <v>3.0</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="53">
         <v>20.0</v>
       </c>
       <c r="I56" s="10"/>
@@ -3055,7 +3060,7 @@
       <c r="K56" s="12">
         <v>3.0</v>
       </c>
-      <c r="L56" s="26"/>
+      <c r="L56" s="47"/>
       <c r="M56" s="26"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
@@ -3066,32 +3071,32 @@
       <c r="V56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="51">
+      <c r="A57" s="53">
         <v>2.0</v>
       </c>
       <c r="B57" s="16">
         <v>39.0</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="51">
+      <c r="E57" s="53">
         <v>4.0</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="53">
         <v>45.0</v>
       </c>
-      <c r="I57" s="56"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="25">
         <v>6.0</v>
       </c>
       <c r="K57" s="12">
         <v>1.0</v>
       </c>
-      <c r="L57" s="26"/>
+      <c r="L57" s="47"/>
       <c r="M57" s="26"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -3103,7 +3108,7 @@
       <c r="V57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="51">
+      <c r="A58" s="53">
         <v>3.0</v>
       </c>
       <c r="B58" s="16">
@@ -3112,23 +3117,23 @@
       <c r="C58" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="51">
+      <c r="E58" s="53">
         <v>5.0</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="53">
         <v>58.0</v>
       </c>
       <c r="I58" s="10"/>
-      <c r="J58" s="57">
+      <c r="J58" s="59">
         <v>7.0</v>
       </c>
-      <c r="K58" s="58">
+      <c r="K58" s="60">
         <v>4.0</v>
       </c>
-      <c r="L58" s="26"/>
+      <c r="L58" s="47"/>
       <c r="M58" s="26"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
@@ -3140,32 +3145,32 @@
       <c r="V58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="51">
+      <c r="A59" s="53">
         <v>3.0</v>
       </c>
       <c r="B59" s="16">
         <v>3.0</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="53">
         <v>6.0</v>
       </c>
-      <c r="F59" s="51" t="s">
+      <c r="F59" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="53">
         <v>33.0</v>
       </c>
       <c r="I59" s="10"/>
-      <c r="J59" s="57">
+      <c r="J59" s="59">
         <v>7.0</v>
       </c>
-      <c r="K59" s="58">
+      <c r="K59" s="60">
         <v>5.0</v>
       </c>
-      <c r="L59" s="26"/>
+      <c r="L59" s="47"/>
       <c r="M59" s="26"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
@@ -3176,33 +3181,33 @@
       <c r="V59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="51">
+      <c r="A60" s="53">
         <v>3.0</v>
       </c>
       <c r="B60" s="16">
         <v>26.0</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E60" s="53">
         <v>7.0</v>
       </c>
-      <c r="F60" s="51" t="s">
+      <c r="F60" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="53">
         <v>26.0</v>
       </c>
       <c r="I60" s="10"/>
-      <c r="J60" s="57">
+      <c r="J60" s="59">
         <v>8.0</v>
       </c>
-      <c r="K60" s="58">
+      <c r="K60" s="60">
         <v>1.0</v>
       </c>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
+      <c r="L60" s="47"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
@@ -3213,7 +3218,7 @@
       <c r="V60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="51">
+      <c r="A61" s="53">
         <v>4.0</v>
       </c>
       <c r="B61" s="16">
@@ -3222,24 +3227,24 @@
       <c r="C61" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="51">
+      <c r="E61" s="53">
         <v>8.0</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="53">
         <v>19.0</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="57">
+      <c r="J61" s="59">
         <v>8.0</v>
       </c>
-      <c r="K61" s="58">
+      <c r="K61" s="60">
         <v>5.0</v>
       </c>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
+      <c r="L61" s="47"/>
+      <c r="N61" s="40"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
@@ -3250,33 +3255,33 @@
       <c r="V61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="51">
+      <c r="A62" s="53">
         <v>4.0</v>
       </c>
       <c r="B62" s="16">
         <v>35.0</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="51">
+      <c r="E62" s="53">
         <v>9.0</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="G62" s="51">
+      <c r="G62" s="53">
         <v>42.0</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="59">
+      <c r="J62" s="61">
         <v>9.0</v>
       </c>
       <c r="K62" s="16">
         <v>6.0</v>
       </c>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
+      <c r="L62" s="47"/>
+      <c r="N62" s="40"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
@@ -3287,33 +3292,33 @@
       <c r="V62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="51">
+      <c r="A63" s="53">
         <v>4.0</v>
       </c>
       <c r="B63" s="16">
         <v>27.0</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="53">
         <v>10.0</v>
       </c>
-      <c r="F63" s="51" t="s">
+      <c r="F63" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="53">
         <v>46.0</v>
       </c>
       <c r="I63" s="4"/>
-      <c r="J63" s="59">
+      <c r="J63" s="61">
         <v>9.0</v>
       </c>
       <c r="K63" s="16">
         <v>2.0</v>
       </c>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
+      <c r="L63" s="47"/>
+      <c r="N63" s="40"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
@@ -3324,7 +3329,7 @@
       <c r="V63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="51">
+      <c r="A64" s="53">
         <v>5.0</v>
       </c>
       <c r="B64" s="16">
@@ -3337,15 +3342,14 @@
       <c r="F64" s="30"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="59">
+      <c r="J64" s="61">
         <v>9.0</v>
       </c>
       <c r="K64" s="16">
         <v>3.0</v>
       </c>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="10"/>
+      <c r="L64" s="47"/>
+      <c r="N64" s="40"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
@@ -3356,28 +3360,27 @@
       <c r="V64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="51">
+      <c r="A65" s="53">
         <v>5.0</v>
       </c>
       <c r="B65" s="16">
         <v>12.0</v>
       </c>
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="53" t="s">
         <v>118</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="48"/>
+      <c r="F65" s="41"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="59">
+      <c r="J65" s="61">
         <v>10.0</v>
       </c>
       <c r="K65" s="16">
         <v>4.0</v>
       </c>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="10"/>
+      <c r="L65" s="47"/>
+      <c r="N65" s="40"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
@@ -3388,28 +3391,27 @@
       <c r="V65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="51">
+      <c r="A66" s="53">
         <v>5.0</v>
       </c>
       <c r="B66" s="16">
         <v>14.0</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="53" t="s">
         <v>119</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="48"/>
+      <c r="F66" s="41"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="59">
+      <c r="J66" s="61">
         <v>10.0</v>
       </c>
       <c r="K66" s="16">
         <v>6.0</v>
       </c>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="10"/>
+      <c r="L66" s="47"/>
+      <c r="N66" s="40"/>
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
@@ -3420,25 +3422,25 @@
       <c r="V66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="51">
+      <c r="A67" s="53">
         <v>5.0</v>
       </c>
       <c r="B67" s="16">
         <v>1.0</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="62" t="s">
         <v>121</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="3"/>
       <c r="H67" s="40"/>
       <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="10"/>
+      <c r="N67" s="40"/>
       <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
@@ -3446,7 +3448,7 @@
       <c r="V67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="51">
+      <c r="A68" s="53">
         <v>6.0</v>
       </c>
       <c r="B68" s="16">
@@ -3455,20 +3457,19 @@
       <c r="C68" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="55" t="s">
+      <c r="F68" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="G68" s="54" t="s">
+      <c r="G68" s="56" t="s">
         <v>124</v>
       </c>
       <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="10"/>
+      <c r="N68" s="40"/>
       <c r="O68" s="10"/>
-      <c r="P68" s="61"/>
+      <c r="P68" s="10"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
@@ -3476,27 +3477,26 @@
       <c r="V68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="51">
+      <c r="A69" s="53">
         <v>6.0</v>
       </c>
       <c r="B69" s="16">
         <v>29.0</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="51">
+      <c r="E69" s="53">
         <v>1.0</v>
       </c>
       <c r="F69" s="18">
         <v>1.0</v>
       </c>
-      <c r="G69" s="51" t="s">
+      <c r="G69" s="53" t="s">
         <v>126</v>
       </c>
       <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="10"/>
+      <c r="N69" s="40"/>
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
       <c r="Q69" s="10"/>
@@ -3507,28 +3507,27 @@
       <c r="V69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="51">
+      <c r="A70" s="53">
         <v>6.0</v>
       </c>
       <c r="B70" s="16">
         <v>30.0</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="53" t="s">
         <v>127</v>
       </c>
       <c r="D70" s="26"/>
-      <c r="E70" s="51">
+      <c r="E70" s="53">
         <v>2.0</v>
       </c>
       <c r="F70" s="18">
         <v>2.0</v>
       </c>
-      <c r="G70" s="51" t="s">
+      <c r="G70" s="53" t="s">
         <v>128</v>
       </c>
       <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="10"/>
+      <c r="N70" s="40"/>
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
       <c r="Q70" s="10"/>
@@ -3539,27 +3538,26 @@
       <c r="V70" s="6"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="51">
+      <c r="A71" s="53">
         <v>6.0</v>
       </c>
       <c r="B71" s="16">
         <v>22.0</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="53">
         <v>3.0</v>
       </c>
       <c r="F71" s="18">
         <v>3.0</v>
       </c>
-      <c r="G71" s="51" t="s">
+      <c r="G71" s="53" t="s">
         <v>130</v>
       </c>
       <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="10"/>
+      <c r="N71" s="40"/>
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
       <c r="Q71" s="10"/>
@@ -3570,7 +3568,7 @@
       <c r="V71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="51">
+      <c r="A72" s="53">
         <v>7.0</v>
       </c>
       <c r="B72" s="16">
@@ -3579,16 +3577,16 @@
       <c r="C72" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="53">
         <v>4.0</v>
       </c>
       <c r="F72" s="18">
         <v>4.0</v>
       </c>
-      <c r="G72" s="51" t="s">
+      <c r="G72" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="N72" s="10"/>
+      <c r="N72" s="40"/>
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="10"/>
@@ -3599,25 +3597,25 @@
       <c r="V72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="51">
+      <c r="A73" s="53">
         <v>7.0</v>
       </c>
       <c r="B73" s="16">
         <v>4.0</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="53">
         <v>5.0</v>
       </c>
       <c r="F73" s="18">
         <v>4.0</v>
       </c>
-      <c r="G73" s="51" t="s">
+      <c r="G73" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="N73" s="10"/>
+      <c r="N73" s="40"/>
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="10"/>
@@ -3628,28 +3626,28 @@
       <c r="V73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="51">
+      <c r="A74" s="53">
         <v>7.0</v>
       </c>
       <c r="B74" s="16">
         <v>11.0</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="51">
+      <c r="E74" s="53">
         <v>6.0</v>
       </c>
       <c r="F74" s="18">
         <v>2.0</v>
       </c>
-      <c r="G74" s="51" t="s">
+      <c r="G74" s="53" t="s">
         <v>136</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="N74" s="10"/>
+      <c r="N74" s="40"/>
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="10"/>
@@ -3660,7 +3658,7 @@
       <c r="V74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="51">
+      <c r="A75" s="53">
         <v>8.0</v>
       </c>
       <c r="B75" s="16">
@@ -3669,19 +3667,19 @@
       <c r="C75" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="51">
+      <c r="E75" s="53">
         <v>7.0</v>
       </c>
       <c r="F75" s="18">
         <v>3.0</v>
       </c>
-      <c r="G75" s="51" t="s">
+      <c r="G75" s="53" t="s">
         <v>138</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="N75" s="10"/>
+      <c r="N75" s="40"/>
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="10"/>
@@ -3692,30 +3690,31 @@
       <c r="V75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="51">
+      <c r="A76" s="53">
         <v>8.0</v>
       </c>
       <c r="B76" s="16">
         <v>40.0</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="53">
         <v>8.0</v>
       </c>
       <c r="F76" s="18">
         <v>3.0</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="53" t="s">
         <v>140</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="40"/>
       <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
       <c r="Q76" s="10"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
@@ -3724,29 +3723,29 @@
       <c r="V76" s="6"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="51">
+      <c r="A77" s="53">
         <v>8.0</v>
       </c>
       <c r="B77" s="16">
         <v>32.0</v>
       </c>
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="53">
         <v>9.0</v>
       </c>
       <c r="F77" s="18">
         <v>2.0</v>
       </c>
-      <c r="G77" s="51" t="s">
+      <c r="G77" s="53" t="s">
         <v>142</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="40"/>
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="10"/>
@@ -3757,30 +3756,30 @@
       <c r="V77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="51">
+      <c r="A78" s="53">
         <v>8.0</v>
       </c>
       <c r="B78" s="16">
         <v>33.0</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="53">
         <v>10.0</v>
       </c>
       <c r="F78" s="18">
         <v>2.0</v>
       </c>
-      <c r="G78" s="51" t="s">
+      <c r="G78" s="53" t="s">
         <v>144</v>
       </c>
       <c r="H78" s="30"/>
-      <c r="I78" s="62" t="s">
+      <c r="I78" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="40"/>
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
       <c r="Q78" s="10"/>
@@ -3791,7 +3790,7 @@
       <c r="V78" s="6"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="51">
+      <c r="A79" s="53">
         <v>9.0</v>
       </c>
       <c r="B79" s="16">
@@ -3813,8 +3812,8 @@
       <c r="K79" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="40"/>
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
       <c r="Q79" s="10"/>
@@ -3825,13 +3824,13 @@
       <c r="V79" s="6"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="51">
+      <c r="A80" s="53">
         <v>9.0</v>
       </c>
       <c r="B80" s="16">
         <v>17.0</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="53" t="s">
         <v>150</v>
       </c>
       <c r="I80" s="16">
@@ -3843,8 +3842,8 @@
       <c r="K80" s="65">
         <v>0.0</v>
       </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="40"/>
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
       <c r="Q80" s="10"/>
@@ -3855,13 +3854,13 @@
       <c r="V80" s="6"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="51">
+      <c r="A81" s="53">
         <v>9.0</v>
       </c>
       <c r="B81" s="16">
         <v>8.0</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="53" t="s">
         <v>152</v>
       </c>
       <c r="I81" s="16">
@@ -3873,8 +3872,8 @@
       <c r="K81" s="66">
         <v>7.99</v>
       </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="40"/>
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
       <c r="Q81" s="10"/>
@@ -3885,13 +3884,13 @@
       <c r="V81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="51">
+      <c r="A82" s="53">
         <v>9.0</v>
       </c>
       <c r="B82" s="16">
         <v>9.0</v>
       </c>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="53" t="s">
         <v>154</v>
       </c>
       <c r="I82" s="16">
@@ -3915,7 +3914,7 @@
       <c r="V82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="51">
+      <c r="A83" s="53">
         <v>10.0</v>
       </c>
       <c r="B83" s="16">
@@ -3945,13 +3944,13 @@
       <c r="V83" s="6"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="51">
+      <c r="A84" s="53">
         <v>10.0</v>
       </c>
       <c r="B84" s="16">
         <v>21.0</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="53" t="s">
         <v>158</v>
       </c>
       <c r="M84" s="4"/>
@@ -3966,13 +3965,13 @@
       <c r="V84" s="6"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="51">
+      <c r="A85" s="53">
         <v>10.0</v>
       </c>
       <c r="B85" s="16">
         <v>12.0</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="53" t="s">
         <v>159</v>
       </c>
       <c r="M85" s="4"/>
@@ -3987,13 +3986,13 @@
       <c r="V85" s="6"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="51">
+      <c r="A86" s="53">
         <v>10.0</v>
       </c>
       <c r="B86" s="16">
         <v>13.0</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="53" t="s">
         <v>160</v>
       </c>
       <c r="M86" s="4"/>
